--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="19140" windowHeight="8496" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="19140" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="531" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>ФИО</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Оценка</t>
   </si>
   <si>
-    <t>Приведение производной функции</t>
-  </si>
-  <si>
     <t>Яхнин Шамиль</t>
   </si>
   <si>
@@ -177,13 +174,91 @@
   </si>
   <si>
     <t>Арбузов Матвей</t>
+  </si>
+  <si>
+    <t>Алексеев Александр Александрович</t>
+  </si>
+  <si>
+    <t>Арбузов Матвей Александрович</t>
+  </si>
+  <si>
+    <t>Бородин Артём Горович</t>
+  </si>
+  <si>
+    <t>Гельфанов Даниил Русланович</t>
+  </si>
+  <si>
+    <t>Грицков Данил Владимирович</t>
+  </si>
+  <si>
+    <t>Гущин Андрей Юрьевич</t>
+  </si>
+  <si>
+    <t>Ерофеева Дарья Дмитриевна</t>
+  </si>
+  <si>
+    <t>Зимина Ирина Олеговна</t>
+  </si>
+  <si>
+    <t>Никитин Арсений Владимирович</t>
+  </si>
+  <si>
+    <t>Нориков Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Окуньков Сергей Викторович</t>
+  </si>
+  <si>
+    <t>Серебряков Алексей Владимирович</t>
+  </si>
+  <si>
+    <t>Стаин Роман Игоревич</t>
+  </si>
+  <si>
+    <t>Стыценкова Валерия Сергеевна</t>
+  </si>
+  <si>
+    <t>Суслин Дмитирий Константинович</t>
+  </si>
+  <si>
+    <t>Таранов Алексей Вадимович</t>
+  </si>
+  <si>
+    <t>Токарев Никита Сергеевич</t>
+  </si>
+  <si>
+    <t>Улитин Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Хрисанфов Алексей Александрович</t>
+  </si>
+  <si>
+    <t>Хуторный Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Чернышова Надежда Викторовна</t>
+  </si>
+  <si>
+    <t>Шуликина Анастасия Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шульдяков Александр Андреевич </t>
+  </si>
+  <si>
+    <t>Яхин Шамиль Илдусович</t>
+  </si>
+  <si>
+    <t>Приведение производной функции (30.09.23)</t>
+  </si>
+  <si>
+    <t>Матрица связей НС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +316,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -435,12 +531,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -537,11 +657,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="27">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 10" xfId="4"/>
+    <cellStyle name="Обычный 11" xfId="5"/>
+    <cellStyle name="Обычный 12" xfId="6"/>
+    <cellStyle name="Обычный 13" xfId="7"/>
+    <cellStyle name="Обычный 14" xfId="8"/>
+    <cellStyle name="Обычный 15" xfId="9"/>
+    <cellStyle name="Обычный 16" xfId="10"/>
+    <cellStyle name="Обычный 17" xfId="11"/>
+    <cellStyle name="Обычный 18" xfId="12"/>
+    <cellStyle name="Обычный 19" xfId="13"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="14"/>
+    <cellStyle name="Обычный 2 3" xfId="15"/>
+    <cellStyle name="Обычный 20" xfId="3"/>
+    <cellStyle name="Обычный 27" xfId="16"/>
+    <cellStyle name="Обычный 29" xfId="17"/>
+    <cellStyle name="Обычный 3" xfId="18"/>
+    <cellStyle name="Обычный 30" xfId="19"/>
+    <cellStyle name="Обычный 31" xfId="20"/>
+    <cellStyle name="Обычный 4" xfId="21"/>
+    <cellStyle name="Обычный 5" xfId="22"/>
+    <cellStyle name="Обычный 6" xfId="23"/>
+    <cellStyle name="Обычный 7" xfId="24"/>
+    <cellStyle name="Обычный 8" xfId="25"/>
+    <cellStyle name="Обычный 9" xfId="26"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -665,7 +833,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:S23" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица531" displayName="Таблица531" ref="A4:S28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <tableColumns count="19">
     <tableColumn id="1" name="ФИО" dataDxfId="12" dataCellStyle="Обычный"/>
     <tableColumn id="2" name="Лекции" dataCellStyle="Обычный"/>
@@ -992,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1283,9 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -1159,7 +1329,9 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="43" t="s">
+        <v>54</v>
+      </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -1204,7 +1376,9 @@
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="43" t="s">
+        <v>55</v>
+      </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -1248,7 +1422,9 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="43" t="s">
+        <v>56</v>
+      </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -1293,7 +1469,9 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -1337,7 +1515,9 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -1382,7 +1562,9 @@
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="43" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -1426,7 +1608,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="43" t="s">
+        <v>60</v>
+      </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -1471,7 +1655,9 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -1515,7 +1701,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -1560,7 +1748,9 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -1604,7 +1794,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -1649,7 +1841,9 @@
       <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="43" t="s">
+        <v>65</v>
+      </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -1692,231 +1886,240 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="37">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="37">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="37">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="37">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="37">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="4">
+      <c r="S18" s="38">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
-      <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="37">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="37">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="37">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="37">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="37">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="4">
+      <c r="S19" s="38">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>68</v>
+      </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="37">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="37">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="37">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="37">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="37">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="4">
+      <c r="S20" s="38">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
-      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="43" t="s">
+        <v>69</v>
+      </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="37">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="37">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="37">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="37">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="37">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="4">
+      <c r="S21" s="38">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="37">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="37">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="37">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="37">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="37">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="4">
+      <c r="S22" s="38">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    </row>
+    <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
+        <v>71</v>
+      </c>
       <c r="B23" s="2">
         <v>0</v>
       </c>
@@ -1958,204 +2161,437 @@
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="G24" s="2">
+        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>2</v>
+      </c>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="4">
+        <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="U29" s="11"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B30" s="1">
         <v>16</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K30" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="32" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="2"/>
-      <c r="K26" s="23" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="2"/>
+      <c r="K31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L31" s="24">
         <f>COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
         <v>0</v>
       </c>
-      <c r="U26" s="11"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="U31" s="11"/>
+    </row>
+    <row r="32" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B32" s="8">
         <v>10</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="K27" s="23" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="K32" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L32" s="24">
         <f>COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="33" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="K28" s="23" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="K33" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L33" s="24">
         <f>COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
         <v>0</v>
       </c>
-      <c r="U28" s="11"/>
-    </row>
-    <row r="29" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="U33" s="11"/>
+    </row>
+    <row r="34" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B34" s="6">
         <v>15</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C34" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="K29" s="23" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="K34" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L34" s="24">
         <f>COUNTIFS(Таблица531[Итого],"&lt;60")</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B35" s="6">
         <v>15</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C35" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="U30" s="11"/>
-    </row>
-    <row r="31" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="U35" s="11"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C36" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U32" s="11"/>
-    </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U37" s="11"/>
+    </row>
+    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="11"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="U39" s="11"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B40" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+    <row r="41" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B41" s="20">
         <v>4</v>
       </c>
-      <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="U41" s="12"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B42" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
+    <row r="43" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B43" s="22">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="M3:S3"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="K30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2167,90 +2603,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>1</v>

--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="19140" windowHeight="8496"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="19140" windowHeight="8496" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="531" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>ФИО</t>
   </si>
@@ -149,33 +149,6 @@
     <t>Оценка</t>
   </si>
   <si>
-    <t>Яхнин Шамиль</t>
-  </si>
-  <si>
-    <t>Алексеев Александр</t>
-  </si>
-  <si>
-    <t>Серебряков Александр</t>
-  </si>
-  <si>
-    <t>Токарев Никита</t>
-  </si>
-  <si>
-    <t>Гельфанов Даниил</t>
-  </si>
-  <si>
-    <t>Бородин Артём</t>
-  </si>
-  <si>
-    <t>Нориков Павел</t>
-  </si>
-  <si>
-    <t>Шуликина Анастасия</t>
-  </si>
-  <si>
-    <t>Арбузов Матвей</t>
-  </si>
-  <si>
     <t>Алексеев Александр Александрович</t>
   </si>
   <si>
@@ -252,13 +225,16 @@
   </si>
   <si>
     <t>Матрица связей НС</t>
+  </si>
+  <si>
+    <t>Вычисления на графе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,18 +297,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,12 +323,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -530,37 +506,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -627,60 +633,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1162,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B22"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A5:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,45 +1178,45 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
@@ -1283,8 +1279,8 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>53</v>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1329,8 +1325,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
-        <v>54</v>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1376,8 +1372,8 @@
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>55</v>
+      <c r="A7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1422,8 +1418,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
-        <v>56</v>
+      <c r="A8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1469,8 +1465,8 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>57</v>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1515,8 +1511,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>58</v>
+      <c r="A10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1562,8 +1558,8 @@
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
-        <v>59</v>
+      <c r="A11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1608,8 +1604,8 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
-        <v>60</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -1655,8 +1651,8 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>61</v>
+      <c r="A13" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -1701,8 +1697,8 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
-        <v>62</v>
+      <c r="A14" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
@@ -1748,8 +1744,8 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>63</v>
+      <c r="A15" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -1794,8 +1790,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
-        <v>64</v>
+      <c r="A16" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -1841,8 +1837,8 @@
       <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>65</v>
+      <c r="A17" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -1887,37 +1883,37 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>66</v>
+      <c r="A18" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="27">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="27">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="27">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="27">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="27">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -1927,43 +1923,43 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="38">
+      <c r="S18" s="28">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
-        <v>67</v>
+      <c r="A19" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="27">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="27">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="27">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="27">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="27">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -1973,43 +1969,43 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="38">
+      <c r="S19" s="28">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>68</v>
+      <c r="A20" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="27">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="27">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="27">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="27">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="27">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -2019,43 +2015,43 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="38">
+      <c r="S20" s="28">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>69</v>
+      <c r="A21" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="27">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="27">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="27">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="27">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="27">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -2065,43 +2061,43 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="38">
+      <c r="S21" s="28">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>70</v>
+      <c r="A22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
         <f>MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="27">
         <f>Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="27">
         <f>Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="27">
         <f>MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  де-сти]]</f>
         <v>0</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="27">
         <f>Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="27">
         <f>SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -2111,14 +2107,14 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="38">
+      <c r="S22" s="28">
         <f>IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
-        <v>71</v>
+      <c r="A23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2164,8 +2160,8 @@
       <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
-        <v>72</v>
+      <c r="A24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2210,8 +2206,8 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="43" t="s">
-        <v>73</v>
+      <c r="A25" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -2257,8 +2253,8 @@
       <c r="U25" s="11"/>
     </row>
     <row r="26" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>74</v>
+      <c r="A26" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -2303,8 +2299,8 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40" t="s">
-        <v>75</v>
+      <c r="A27" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -2350,8 +2346,8 @@
       <c r="U27" s="11"/>
     </row>
     <row r="28" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
-        <v>76</v>
+      <c r="A28" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -2417,22 +2413,22 @@
       <c r="B30" s="1">
         <v>16</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L30" s="35"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:21" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="2"/>
       <c r="K31" s="23" t="s">
         <v>38</v>
@@ -2450,12 +2446,12 @@
       <c r="B32" s="8">
         <v>10</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
       <c r="K32" s="23" t="s">
         <v>39</v>
       </c>
@@ -2471,12 +2467,12 @@
       <c r="B33" s="6">
         <v>30</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="K33" s="23" t="s">
         <v>40</v>
       </c>
@@ -2493,12 +2489,12 @@
       <c r="B34" s="6">
         <v>15</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="K34" s="23" t="s">
         <v>41</v>
       </c>
@@ -2514,12 +2510,12 @@
       <c r="B35" s="6">
         <v>15</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
       <c r="U35" s="11"/>
     </row>
     <row r="36" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2529,12 +2525,12 @@
       <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U37" s="11"/>
@@ -2603,99 +2599,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
     </row>

--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="531" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Работа" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="531" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Работа" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t xml:space="preserve">531 группа</t>
   </si>
@@ -237,16 +237,26 @@
   </si>
   <si>
     <t xml:space="preserve">Контрольная работа (25.11.2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радиально базисные НС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Методы глобальной оптимизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -324,7 +334,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,7 +349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFB9CDE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94BD5E"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F2"/>
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
@@ -349,14 +377,8 @@
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -376,13 +398,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -410,6 +425,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -454,13 +476,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -590,152 +605,168 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,6 +805,39 @@
     <cellStyle name="Обычный 9" xfId="45"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF94BD5E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -818,7 +882,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF94BD5E"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -863,148 +927,2267 @@
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="2" style="0" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="13" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="46.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="13" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="46.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="1" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>45262</v>
+      <c r="A1" s="2" t="n">
+        <v>45305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
+      <c r="IU3" s="1"/>
+      <c r="IV3" s="1"/>
+      <c r="IW3" s="1"/>
+      <c r="IX3" s="1"/>
+      <c r="IY3" s="1"/>
+      <c r="IZ3" s="1"/>
+      <c r="JA3" s="1"/>
+      <c r="JB3" s="1"/>
+      <c r="JC3" s="1"/>
+      <c r="JD3" s="1"/>
+      <c r="JE3" s="1"/>
+      <c r="JF3" s="1"/>
+      <c r="JG3" s="1"/>
+      <c r="JH3" s="1"/>
+      <c r="JI3" s="1"/>
+      <c r="JJ3" s="1"/>
+      <c r="JK3" s="1"/>
+      <c r="JL3" s="1"/>
+      <c r="JM3" s="1"/>
+      <c r="JN3" s="1"/>
+      <c r="JO3" s="1"/>
+      <c r="JP3" s="1"/>
+      <c r="JQ3" s="1"/>
+      <c r="JR3" s="1"/>
+      <c r="JS3" s="1"/>
+      <c r="JT3" s="1"/>
+      <c r="JU3" s="1"/>
+      <c r="JV3" s="1"/>
+      <c r="JW3" s="1"/>
+      <c r="JX3" s="1"/>
+      <c r="JY3" s="1"/>
+      <c r="JZ3" s="1"/>
+      <c r="KA3" s="1"/>
+      <c r="KB3" s="1"/>
+      <c r="KC3" s="1"/>
+      <c r="KD3" s="1"/>
+      <c r="KE3" s="1"/>
+      <c r="KF3" s="1"/>
+      <c r="KG3" s="1"/>
+      <c r="KH3" s="1"/>
+      <c r="KI3" s="1"/>
+      <c r="KJ3" s="1"/>
+      <c r="KK3" s="1"/>
+      <c r="KL3" s="1"/>
+      <c r="KM3" s="1"/>
+      <c r="KN3" s="1"/>
+      <c r="KO3" s="1"/>
+      <c r="KP3" s="1"/>
+      <c r="KQ3" s="1"/>
+      <c r="KR3" s="1"/>
+      <c r="KS3" s="1"/>
+      <c r="KT3" s="1"/>
+      <c r="KU3" s="1"/>
+      <c r="KV3" s="1"/>
+      <c r="KW3" s="1"/>
+      <c r="KX3" s="1"/>
+      <c r="KY3" s="1"/>
+      <c r="KZ3" s="1"/>
+      <c r="LA3" s="1"/>
+      <c r="LB3" s="1"/>
+      <c r="LC3" s="1"/>
+      <c r="LD3" s="1"/>
+      <c r="LE3" s="1"/>
+      <c r="LF3" s="1"/>
+      <c r="LG3" s="1"/>
+      <c r="LH3" s="1"/>
+      <c r="LI3" s="1"/>
+      <c r="LJ3" s="1"/>
+      <c r="LK3" s="1"/>
+      <c r="LL3" s="1"/>
+      <c r="LM3" s="1"/>
+      <c r="LN3" s="1"/>
+      <c r="LO3" s="1"/>
+      <c r="LP3" s="1"/>
+      <c r="LQ3" s="1"/>
+      <c r="LR3" s="1"/>
+      <c r="LS3" s="1"/>
+      <c r="LT3" s="1"/>
+      <c r="LU3" s="1"/>
+      <c r="LV3" s="1"/>
+      <c r="LW3" s="1"/>
+      <c r="LX3" s="1"/>
+      <c r="LY3" s="1"/>
+      <c r="LZ3" s="1"/>
+      <c r="MA3" s="1"/>
+      <c r="MB3" s="1"/>
+      <c r="MC3" s="1"/>
+      <c r="MD3" s="1"/>
+      <c r="ME3" s="1"/>
+      <c r="MF3" s="1"/>
+      <c r="MG3" s="1"/>
+      <c r="MH3" s="1"/>
+      <c r="MI3" s="1"/>
+      <c r="MJ3" s="1"/>
+      <c r="MK3" s="1"/>
+      <c r="ML3" s="1"/>
+      <c r="MM3" s="1"/>
+      <c r="MN3" s="1"/>
+      <c r="MO3" s="1"/>
+      <c r="MP3" s="1"/>
+      <c r="MQ3" s="1"/>
+      <c r="MR3" s="1"/>
+      <c r="MS3" s="1"/>
+      <c r="MT3" s="1"/>
+      <c r="MU3" s="1"/>
+      <c r="MV3" s="1"/>
+      <c r="MW3" s="1"/>
+      <c r="MX3" s="1"/>
+      <c r="MY3" s="1"/>
+      <c r="MZ3" s="1"/>
+      <c r="NA3" s="1"/>
+      <c r="NB3" s="1"/>
+      <c r="NC3" s="1"/>
+      <c r="ND3" s="1"/>
+      <c r="NE3" s="1"/>
+      <c r="NF3" s="1"/>
+      <c r="NG3" s="1"/>
+      <c r="NH3" s="1"/>
+      <c r="NI3" s="1"/>
+      <c r="NJ3" s="1"/>
+      <c r="NK3" s="1"/>
+      <c r="NL3" s="1"/>
+      <c r="NM3" s="1"/>
+      <c r="NN3" s="1"/>
+      <c r="NO3" s="1"/>
+      <c r="NP3" s="1"/>
+      <c r="NQ3" s="1"/>
+      <c r="NR3" s="1"/>
+      <c r="NS3" s="1"/>
+      <c r="NT3" s="1"/>
+      <c r="NU3" s="1"/>
+      <c r="NV3" s="1"/>
+      <c r="NW3" s="1"/>
+      <c r="NX3" s="1"/>
+      <c r="NY3" s="1"/>
+      <c r="NZ3" s="1"/>
+      <c r="OA3" s="1"/>
+      <c r="OB3" s="1"/>
+      <c r="OC3" s="1"/>
+      <c r="OD3" s="1"/>
+      <c r="OE3" s="1"/>
+      <c r="OF3" s="1"/>
+      <c r="OG3" s="1"/>
+      <c r="OH3" s="1"/>
+      <c r="OI3" s="1"/>
+      <c r="OJ3" s="1"/>
+      <c r="OK3" s="1"/>
+      <c r="OL3" s="1"/>
+      <c r="OM3" s="1"/>
+      <c r="ON3" s="1"/>
+      <c r="OO3" s="1"/>
+      <c r="OP3" s="1"/>
+      <c r="OQ3" s="1"/>
+      <c r="OR3" s="1"/>
+      <c r="OS3" s="1"/>
+      <c r="OT3" s="1"/>
+      <c r="OU3" s="1"/>
+      <c r="OV3" s="1"/>
+      <c r="OW3" s="1"/>
+      <c r="OX3" s="1"/>
+      <c r="OY3" s="1"/>
+      <c r="OZ3" s="1"/>
+      <c r="PA3" s="1"/>
+      <c r="PB3" s="1"/>
+      <c r="PC3" s="1"/>
+      <c r="PD3" s="1"/>
+      <c r="PE3" s="1"/>
+      <c r="PF3" s="1"/>
+      <c r="PG3" s="1"/>
+      <c r="PH3" s="1"/>
+      <c r="PI3" s="1"/>
+      <c r="PJ3" s="1"/>
+      <c r="PK3" s="1"/>
+      <c r="PL3" s="1"/>
+      <c r="PM3" s="1"/>
+      <c r="PN3" s="1"/>
+      <c r="PO3" s="1"/>
+      <c r="PP3" s="1"/>
+      <c r="PQ3" s="1"/>
+      <c r="PR3" s="1"/>
+      <c r="PS3" s="1"/>
+      <c r="PT3" s="1"/>
+      <c r="PU3" s="1"/>
+      <c r="PV3" s="1"/>
+      <c r="PW3" s="1"/>
+      <c r="PX3" s="1"/>
+      <c r="PY3" s="1"/>
+      <c r="PZ3" s="1"/>
+      <c r="QA3" s="1"/>
+      <c r="QB3" s="1"/>
+      <c r="QC3" s="1"/>
+      <c r="QD3" s="1"/>
+      <c r="QE3" s="1"/>
+      <c r="QF3" s="1"/>
+      <c r="QG3" s="1"/>
+      <c r="QH3" s="1"/>
+      <c r="QI3" s="1"/>
+      <c r="QJ3" s="1"/>
+      <c r="QK3" s="1"/>
+      <c r="QL3" s="1"/>
+      <c r="QM3" s="1"/>
+      <c r="QN3" s="1"/>
+      <c r="QO3" s="1"/>
+      <c r="QP3" s="1"/>
+      <c r="QQ3" s="1"/>
+      <c r="QR3" s="1"/>
+      <c r="QS3" s="1"/>
+      <c r="QT3" s="1"/>
+      <c r="QU3" s="1"/>
+      <c r="QV3" s="1"/>
+      <c r="QW3" s="1"/>
+      <c r="QX3" s="1"/>
+      <c r="QY3" s="1"/>
+      <c r="QZ3" s="1"/>
+      <c r="RA3" s="1"/>
+      <c r="RB3" s="1"/>
+      <c r="RC3" s="1"/>
+      <c r="RD3" s="1"/>
+      <c r="RE3" s="1"/>
+      <c r="RF3" s="1"/>
+      <c r="RG3" s="1"/>
+      <c r="RH3" s="1"/>
+      <c r="RI3" s="1"/>
+      <c r="RJ3" s="1"/>
+      <c r="RK3" s="1"/>
+      <c r="RL3" s="1"/>
+      <c r="RM3" s="1"/>
+      <c r="RN3" s="1"/>
+      <c r="RO3" s="1"/>
+      <c r="RP3" s="1"/>
+      <c r="RQ3" s="1"/>
+      <c r="RR3" s="1"/>
+      <c r="RS3" s="1"/>
+      <c r="RT3" s="1"/>
+      <c r="RU3" s="1"/>
+      <c r="RV3" s="1"/>
+      <c r="RW3" s="1"/>
+      <c r="RX3" s="1"/>
+      <c r="RY3" s="1"/>
+      <c r="RZ3" s="1"/>
+      <c r="SA3" s="1"/>
+      <c r="SB3" s="1"/>
+      <c r="SC3" s="1"/>
+      <c r="SD3" s="1"/>
+      <c r="SE3" s="1"/>
+      <c r="SF3" s="1"/>
+      <c r="SG3" s="1"/>
+      <c r="SH3" s="1"/>
+      <c r="SI3" s="1"/>
+      <c r="SJ3" s="1"/>
+      <c r="SK3" s="1"/>
+      <c r="SL3" s="1"/>
+      <c r="SM3" s="1"/>
+      <c r="SN3" s="1"/>
+      <c r="SO3" s="1"/>
+      <c r="SP3" s="1"/>
+      <c r="SQ3" s="1"/>
+      <c r="SR3" s="1"/>
+      <c r="SS3" s="1"/>
+      <c r="ST3" s="1"/>
+      <c r="SU3" s="1"/>
+      <c r="SV3" s="1"/>
+      <c r="SW3" s="1"/>
+      <c r="SX3" s="1"/>
+      <c r="SY3" s="1"/>
+      <c r="SZ3" s="1"/>
+      <c r="TA3" s="1"/>
+      <c r="TB3" s="1"/>
+      <c r="TC3" s="1"/>
+      <c r="TD3" s="1"/>
+      <c r="TE3" s="1"/>
+      <c r="TF3" s="1"/>
+      <c r="TG3" s="1"/>
+      <c r="TH3" s="1"/>
+      <c r="TI3" s="1"/>
+      <c r="TJ3" s="1"/>
+      <c r="TK3" s="1"/>
+      <c r="TL3" s="1"/>
+      <c r="TM3" s="1"/>
+      <c r="TN3" s="1"/>
+      <c r="TO3" s="1"/>
+      <c r="TP3" s="1"/>
+      <c r="TQ3" s="1"/>
+      <c r="TR3" s="1"/>
+      <c r="TS3" s="1"/>
+      <c r="TT3" s="1"/>
+      <c r="TU3" s="1"/>
+      <c r="TV3" s="1"/>
+      <c r="TW3" s="1"/>
+      <c r="TX3" s="1"/>
+      <c r="TY3" s="1"/>
+      <c r="TZ3" s="1"/>
+      <c r="UA3" s="1"/>
+      <c r="UB3" s="1"/>
+      <c r="UC3" s="1"/>
+      <c r="UD3" s="1"/>
+      <c r="UE3" s="1"/>
+      <c r="UF3" s="1"/>
+      <c r="UG3" s="1"/>
+      <c r="UH3" s="1"/>
+      <c r="UI3" s="1"/>
+      <c r="UJ3" s="1"/>
+      <c r="UK3" s="1"/>
+      <c r="UL3" s="1"/>
+      <c r="UM3" s="1"/>
+      <c r="UN3" s="1"/>
+      <c r="UO3" s="1"/>
+      <c r="UP3" s="1"/>
+      <c r="UQ3" s="1"/>
+      <c r="UR3" s="1"/>
+      <c r="US3" s="1"/>
+      <c r="UT3" s="1"/>
+      <c r="UU3" s="1"/>
+      <c r="UV3" s="1"/>
+      <c r="UW3" s="1"/>
+      <c r="UX3" s="1"/>
+      <c r="UY3" s="1"/>
+      <c r="UZ3" s="1"/>
+      <c r="VA3" s="1"/>
+      <c r="VB3" s="1"/>
+      <c r="VC3" s="1"/>
+      <c r="VD3" s="1"/>
+      <c r="VE3" s="1"/>
+      <c r="VF3" s="1"/>
+      <c r="VG3" s="1"/>
+      <c r="VH3" s="1"/>
+      <c r="VI3" s="1"/>
+      <c r="VJ3" s="1"/>
+      <c r="VK3" s="1"/>
+      <c r="VL3" s="1"/>
+      <c r="VM3" s="1"/>
+      <c r="VN3" s="1"/>
+      <c r="VO3" s="1"/>
+      <c r="VP3" s="1"/>
+      <c r="VQ3" s="1"/>
+      <c r="VR3" s="1"/>
+      <c r="VS3" s="1"/>
+      <c r="VT3" s="1"/>
+      <c r="VU3" s="1"/>
+      <c r="VV3" s="1"/>
+      <c r="VW3" s="1"/>
+      <c r="VX3" s="1"/>
+      <c r="VY3" s="1"/>
+      <c r="VZ3" s="1"/>
+      <c r="WA3" s="1"/>
+      <c r="WB3" s="1"/>
+      <c r="WC3" s="1"/>
+      <c r="WD3" s="1"/>
+      <c r="WE3" s="1"/>
+      <c r="WF3" s="1"/>
+      <c r="WG3" s="1"/>
+      <c r="WH3" s="1"/>
+      <c r="WI3" s="1"/>
+      <c r="WJ3" s="1"/>
+      <c r="WK3" s="1"/>
+      <c r="WL3" s="1"/>
+      <c r="WM3" s="1"/>
+      <c r="WN3" s="1"/>
+      <c r="WO3" s="1"/>
+      <c r="WP3" s="1"/>
+      <c r="WQ3" s="1"/>
+      <c r="WR3" s="1"/>
+      <c r="WS3" s="1"/>
+      <c r="WT3" s="1"/>
+      <c r="WU3" s="1"/>
+      <c r="WV3" s="1"/>
+      <c r="WW3" s="1"/>
+      <c r="WX3" s="1"/>
+      <c r="WY3" s="1"/>
+      <c r="WZ3" s="1"/>
+      <c r="XA3" s="1"/>
+      <c r="XB3" s="1"/>
+      <c r="XC3" s="1"/>
+      <c r="XD3" s="1"/>
+      <c r="XE3" s="1"/>
+      <c r="XF3" s="1"/>
+      <c r="XG3" s="1"/>
+      <c r="XH3" s="1"/>
+      <c r="XI3" s="1"/>
+      <c r="XJ3" s="1"/>
+      <c r="XK3" s="1"/>
+      <c r="XL3" s="1"/>
+      <c r="XM3" s="1"/>
+      <c r="XN3" s="1"/>
+      <c r="XO3" s="1"/>
+      <c r="XP3" s="1"/>
+      <c r="XQ3" s="1"/>
+      <c r="XR3" s="1"/>
+      <c r="XS3" s="1"/>
+      <c r="XT3" s="1"/>
+      <c r="XU3" s="1"/>
+      <c r="XV3" s="1"/>
+      <c r="XW3" s="1"/>
+      <c r="XX3" s="1"/>
+      <c r="XY3" s="1"/>
+      <c r="XZ3" s="1"/>
+      <c r="YA3" s="1"/>
+      <c r="YB3" s="1"/>
+      <c r="YC3" s="1"/>
+      <c r="YD3" s="1"/>
+      <c r="YE3" s="1"/>
+      <c r="YF3" s="1"/>
+      <c r="YG3" s="1"/>
+      <c r="YH3" s="1"/>
+      <c r="YI3" s="1"/>
+      <c r="YJ3" s="1"/>
+      <c r="YK3" s="1"/>
+      <c r="YL3" s="1"/>
+      <c r="YM3" s="1"/>
+      <c r="YN3" s="1"/>
+      <c r="YO3" s="1"/>
+      <c r="YP3" s="1"/>
+      <c r="YQ3" s="1"/>
+      <c r="YR3" s="1"/>
+      <c r="YS3" s="1"/>
+      <c r="YT3" s="1"/>
+      <c r="YU3" s="1"/>
+      <c r="YV3" s="1"/>
+      <c r="YW3" s="1"/>
+      <c r="YX3" s="1"/>
+      <c r="YY3" s="1"/>
+      <c r="YZ3" s="1"/>
+      <c r="ZA3" s="1"/>
+      <c r="ZB3" s="1"/>
+      <c r="ZC3" s="1"/>
+      <c r="ZD3" s="1"/>
+      <c r="ZE3" s="1"/>
+      <c r="ZF3" s="1"/>
+      <c r="ZG3" s="1"/>
+      <c r="ZH3" s="1"/>
+      <c r="ZI3" s="1"/>
+      <c r="ZJ3" s="1"/>
+      <c r="ZK3" s="1"/>
+      <c r="ZL3" s="1"/>
+      <c r="ZM3" s="1"/>
+      <c r="ZN3" s="1"/>
+      <c r="ZO3" s="1"/>
+      <c r="ZP3" s="1"/>
+      <c r="ZQ3" s="1"/>
+      <c r="ZR3" s="1"/>
+      <c r="ZS3" s="1"/>
+      <c r="ZT3" s="1"/>
+      <c r="ZU3" s="1"/>
+      <c r="ZV3" s="1"/>
+      <c r="ZW3" s="1"/>
+      <c r="ZX3" s="1"/>
+      <c r="ZY3" s="1"/>
+      <c r="ZZ3" s="1"/>
+      <c r="AAA3" s="1"/>
+      <c r="AAB3" s="1"/>
+      <c r="AAC3" s="1"/>
+      <c r="AAD3" s="1"/>
+      <c r="AAE3" s="1"/>
+      <c r="AAF3" s="1"/>
+      <c r="AAG3" s="1"/>
+      <c r="AAH3" s="1"/>
+      <c r="AAI3" s="1"/>
+      <c r="AAJ3" s="1"/>
+      <c r="AAK3" s="1"/>
+      <c r="AAL3" s="1"/>
+      <c r="AAM3" s="1"/>
+      <c r="AAN3" s="1"/>
+      <c r="AAO3" s="1"/>
+      <c r="AAP3" s="1"/>
+      <c r="AAQ3" s="1"/>
+      <c r="AAR3" s="1"/>
+      <c r="AAS3" s="1"/>
+      <c r="AAT3" s="1"/>
+      <c r="AAU3" s="1"/>
+      <c r="AAV3" s="1"/>
+      <c r="AAW3" s="1"/>
+      <c r="AAX3" s="1"/>
+      <c r="AAY3" s="1"/>
+      <c r="AAZ3" s="1"/>
+      <c r="ABA3" s="1"/>
+      <c r="ABB3" s="1"/>
+      <c r="ABC3" s="1"/>
+      <c r="ABD3" s="1"/>
+      <c r="ABE3" s="1"/>
+      <c r="ABF3" s="1"/>
+      <c r="ABG3" s="1"/>
+      <c r="ABH3" s="1"/>
+      <c r="ABI3" s="1"/>
+      <c r="ABJ3" s="1"/>
+      <c r="ABK3" s="1"/>
+      <c r="ABL3" s="1"/>
+      <c r="ABM3" s="1"/>
+      <c r="ABN3" s="1"/>
+      <c r="ABO3" s="1"/>
+      <c r="ABP3" s="1"/>
+      <c r="ABQ3" s="1"/>
+      <c r="ABR3" s="1"/>
+      <c r="ABS3" s="1"/>
+      <c r="ABT3" s="1"/>
+      <c r="ABU3" s="1"/>
+      <c r="ABV3" s="1"/>
+      <c r="ABW3" s="1"/>
+      <c r="ABX3" s="1"/>
+      <c r="ABY3" s="1"/>
+      <c r="ABZ3" s="1"/>
+      <c r="ACA3" s="1"/>
+      <c r="ACB3" s="1"/>
+      <c r="ACC3" s="1"/>
+      <c r="ACD3" s="1"/>
+      <c r="ACE3" s="1"/>
+      <c r="ACF3" s="1"/>
+      <c r="ACG3" s="1"/>
+      <c r="ACH3" s="1"/>
+      <c r="ACI3" s="1"/>
+      <c r="ACJ3" s="1"/>
+      <c r="ACK3" s="1"/>
+      <c r="ACL3" s="1"/>
+      <c r="ACM3" s="1"/>
+      <c r="ACN3" s="1"/>
+      <c r="ACO3" s="1"/>
+      <c r="ACP3" s="1"/>
+      <c r="ACQ3" s="1"/>
+      <c r="ACR3" s="1"/>
+      <c r="ACS3" s="1"/>
+      <c r="ACT3" s="1"/>
+      <c r="ACU3" s="1"/>
+      <c r="ACV3" s="1"/>
+      <c r="ACW3" s="1"/>
+      <c r="ACX3" s="1"/>
+      <c r="ACY3" s="1"/>
+      <c r="ACZ3" s="1"/>
+      <c r="ADA3" s="1"/>
+      <c r="ADB3" s="1"/>
+      <c r="ADC3" s="1"/>
+      <c r="ADD3" s="1"/>
+      <c r="ADE3" s="1"/>
+      <c r="ADF3" s="1"/>
+      <c r="ADG3" s="1"/>
+      <c r="ADH3" s="1"/>
+      <c r="ADI3" s="1"/>
+      <c r="ADJ3" s="1"/>
+      <c r="ADK3" s="1"/>
+      <c r="ADL3" s="1"/>
+      <c r="ADM3" s="1"/>
+      <c r="ADN3" s="1"/>
+      <c r="ADO3" s="1"/>
+      <c r="ADP3" s="1"/>
+      <c r="ADQ3" s="1"/>
+      <c r="ADR3" s="1"/>
+      <c r="ADS3" s="1"/>
+      <c r="ADT3" s="1"/>
+      <c r="ADU3" s="1"/>
+      <c r="ADV3" s="1"/>
+      <c r="ADW3" s="1"/>
+      <c r="ADX3" s="1"/>
+      <c r="ADY3" s="1"/>
+      <c r="ADZ3" s="1"/>
+      <c r="AEA3" s="1"/>
+      <c r="AEB3" s="1"/>
+      <c r="AEC3" s="1"/>
+      <c r="AED3" s="1"/>
+      <c r="AEE3" s="1"/>
+      <c r="AEF3" s="1"/>
+      <c r="AEG3" s="1"/>
+      <c r="AEH3" s="1"/>
+      <c r="AEI3" s="1"/>
+      <c r="AEJ3" s="1"/>
+      <c r="AEK3" s="1"/>
+      <c r="AEL3" s="1"/>
+      <c r="AEM3" s="1"/>
+      <c r="AEN3" s="1"/>
+      <c r="AEO3" s="1"/>
+      <c r="AEP3" s="1"/>
+      <c r="AEQ3" s="1"/>
+      <c r="AER3" s="1"/>
+      <c r="AES3" s="1"/>
+      <c r="AET3" s="1"/>
+      <c r="AEU3" s="1"/>
+      <c r="AEV3" s="1"/>
+      <c r="AEW3" s="1"/>
+      <c r="AEX3" s="1"/>
+      <c r="AEY3" s="1"/>
+      <c r="AEZ3" s="1"/>
+      <c r="AFA3" s="1"/>
+      <c r="AFB3" s="1"/>
+      <c r="AFC3" s="1"/>
+      <c r="AFD3" s="1"/>
+      <c r="AFE3" s="1"/>
+      <c r="AFF3" s="1"/>
+      <c r="AFG3" s="1"/>
+      <c r="AFH3" s="1"/>
+      <c r="AFI3" s="1"/>
+      <c r="AFJ3" s="1"/>
+      <c r="AFK3" s="1"/>
+      <c r="AFL3" s="1"/>
+      <c r="AFM3" s="1"/>
+      <c r="AFN3" s="1"/>
+      <c r="AFO3" s="1"/>
+      <c r="AFP3" s="1"/>
+      <c r="AFQ3" s="1"/>
+      <c r="AFR3" s="1"/>
+      <c r="AFS3" s="1"/>
+      <c r="AFT3" s="1"/>
+      <c r="AFU3" s="1"/>
+      <c r="AFV3" s="1"/>
+      <c r="AFW3" s="1"/>
+      <c r="AFX3" s="1"/>
+      <c r="AFY3" s="1"/>
+      <c r="AFZ3" s="1"/>
+      <c r="AGA3" s="1"/>
+      <c r="AGB3" s="1"/>
+      <c r="AGC3" s="1"/>
+      <c r="AGD3" s="1"/>
+      <c r="AGE3" s="1"/>
+      <c r="AGF3" s="1"/>
+      <c r="AGG3" s="1"/>
+      <c r="AGH3" s="1"/>
+      <c r="AGI3" s="1"/>
+      <c r="AGJ3" s="1"/>
+      <c r="AGK3" s="1"/>
+      <c r="AGL3" s="1"/>
+      <c r="AGM3" s="1"/>
+      <c r="AGN3" s="1"/>
+      <c r="AGO3" s="1"/>
+      <c r="AGP3" s="1"/>
+      <c r="AGQ3" s="1"/>
+      <c r="AGR3" s="1"/>
+      <c r="AGS3" s="1"/>
+      <c r="AGT3" s="1"/>
+      <c r="AGU3" s="1"/>
+      <c r="AGV3" s="1"/>
+      <c r="AGW3" s="1"/>
+      <c r="AGX3" s="1"/>
+      <c r="AGY3" s="1"/>
+      <c r="AGZ3" s="1"/>
+      <c r="AHA3" s="1"/>
+      <c r="AHB3" s="1"/>
+      <c r="AHC3" s="1"/>
+      <c r="AHD3" s="1"/>
+      <c r="AHE3" s="1"/>
+      <c r="AHF3" s="1"/>
+      <c r="AHG3" s="1"/>
+      <c r="AHH3" s="1"/>
+      <c r="AHI3" s="1"/>
+      <c r="AHJ3" s="1"/>
+      <c r="AHK3" s="1"/>
+      <c r="AHL3" s="1"/>
+      <c r="AHM3" s="1"/>
+      <c r="AHN3" s="1"/>
+      <c r="AHO3" s="1"/>
+      <c r="AHP3" s="1"/>
+      <c r="AHQ3" s="1"/>
+      <c r="AHR3" s="1"/>
+      <c r="AHS3" s="1"/>
+      <c r="AHT3" s="1"/>
+      <c r="AHU3" s="1"/>
+      <c r="AHV3" s="1"/>
+      <c r="AHW3" s="1"/>
+      <c r="AHX3" s="1"/>
+      <c r="AHY3" s="1"/>
+      <c r="AHZ3" s="1"/>
+      <c r="AIA3" s="1"/>
+      <c r="AIB3" s="1"/>
+      <c r="AIC3" s="1"/>
+      <c r="AID3" s="1"/>
+      <c r="AIE3" s="1"/>
+      <c r="AIF3" s="1"/>
+      <c r="AIG3" s="1"/>
+      <c r="AIH3" s="1"/>
+      <c r="AII3" s="1"/>
+      <c r="AIJ3" s="1"/>
+      <c r="AIK3" s="1"/>
+      <c r="AIL3" s="1"/>
+      <c r="AIM3" s="1"/>
+      <c r="AIN3" s="1"/>
+      <c r="AIO3" s="1"/>
+      <c r="AIP3" s="1"/>
+      <c r="AIQ3" s="1"/>
+      <c r="AIR3" s="1"/>
+      <c r="AIS3" s="1"/>
+      <c r="AIT3" s="1"/>
+      <c r="AIU3" s="1"/>
+      <c r="AIV3" s="1"/>
+      <c r="AIW3" s="1"/>
+      <c r="AIX3" s="1"/>
+      <c r="AIY3" s="1"/>
+      <c r="AIZ3" s="1"/>
+      <c r="AJA3" s="1"/>
+      <c r="AJB3" s="1"/>
+      <c r="AJC3" s="1"/>
+      <c r="AJD3" s="1"/>
+      <c r="AJE3" s="1"/>
+      <c r="AJF3" s="1"/>
+      <c r="AJG3" s="1"/>
+      <c r="AJH3" s="1"/>
+      <c r="AJI3" s="1"/>
+      <c r="AJJ3" s="1"/>
+      <c r="AJK3" s="1"/>
+      <c r="AJL3" s="1"/>
+      <c r="AJM3" s="1"/>
+      <c r="AJN3" s="1"/>
+      <c r="AJO3" s="1"/>
+      <c r="AJP3" s="1"/>
+      <c r="AJQ3" s="1"/>
+      <c r="AJR3" s="1"/>
+      <c r="AJS3" s="1"/>
+      <c r="AJT3" s="1"/>
+      <c r="AJU3" s="1"/>
+      <c r="AJV3" s="1"/>
+      <c r="AJW3" s="1"/>
+      <c r="AJX3" s="1"/>
+      <c r="AJY3" s="1"/>
+      <c r="AJZ3" s="1"/>
+      <c r="AKA3" s="1"/>
+      <c r="AKB3" s="1"/>
+      <c r="AKC3" s="1"/>
+      <c r="AKD3" s="1"/>
+      <c r="AKE3" s="1"/>
+      <c r="AKF3" s="1"/>
+      <c r="AKG3" s="1"/>
+      <c r="AKH3" s="1"/>
+      <c r="AKI3" s="1"/>
+      <c r="AKJ3" s="1"/>
+      <c r="AKK3" s="1"/>
+      <c r="AKL3" s="1"/>
+      <c r="AKM3" s="1"/>
+      <c r="AKN3" s="1"/>
+      <c r="AKO3" s="1"/>
+      <c r="AKP3" s="1"/>
+      <c r="AKQ3" s="1"/>
+      <c r="AKR3" s="1"/>
+      <c r="AKS3" s="1"/>
+      <c r="AKT3" s="1"/>
+      <c r="AKU3" s="1"/>
+      <c r="AKV3" s="1"/>
+      <c r="AKW3" s="1"/>
+      <c r="AKX3" s="1"/>
+      <c r="AKY3" s="1"/>
+      <c r="AKZ3" s="1"/>
+      <c r="ALA3" s="1"/>
+      <c r="ALB3" s="1"/>
+      <c r="ALC3" s="1"/>
+      <c r="ALD3" s="1"/>
+      <c r="ALE3" s="1"/>
+      <c r="ALF3" s="1"/>
+      <c r="ALG3" s="1"/>
+      <c r="ALH3" s="1"/>
+      <c r="ALI3" s="1"/>
+      <c r="ALJ3" s="1"/>
+      <c r="ALK3" s="1"/>
+      <c r="ALL3" s="1"/>
+      <c r="ALM3" s="1"/>
+      <c r="ALN3" s="1"/>
+      <c r="ALO3" s="1"/>
+      <c r="ALP3" s="1"/>
+      <c r="ALQ3" s="1"/>
+      <c r="ALR3" s="1"/>
+      <c r="ALS3" s="1"/>
+      <c r="ALT3" s="1"/>
+      <c r="ALU3" s="1"/>
+      <c r="ALV3" s="1"/>
+      <c r="ALW3" s="1"/>
+      <c r="ALX3" s="1"/>
+      <c r="ALY3" s="1"/>
+      <c r="ALZ3" s="1"/>
+      <c r="AMA3" s="1"/>
+      <c r="AMB3" s="1"/>
+      <c r="AMC3" s="1"/>
+      <c r="AMD3" s="1"/>
+      <c r="AME3" s="1"/>
+      <c r="AMF3" s="1"/>
+      <c r="AMG3" s="1"/>
+      <c r="AMH3" s="1"/>
+      <c r="AMI3" s="1"/>
+      <c r="AMJ3" s="1"/>
+      <c r="AMK3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="T4" s="7"/>
       <c r="U4" s="10"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="7"/>
+      <c r="CM4" s="7"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="CQ4" s="7"/>
+      <c r="CR4" s="7"/>
+      <c r="CS4" s="7"/>
+      <c r="CT4" s="7"/>
+      <c r="CU4" s="7"/>
+      <c r="CV4" s="7"/>
+      <c r="CW4" s="7"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="7"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="7"/>
+      <c r="DC4" s="7"/>
+      <c r="DD4" s="7"/>
+      <c r="DE4" s="7"/>
+      <c r="DF4" s="7"/>
+      <c r="DG4" s="7"/>
+      <c r="DH4" s="7"/>
+      <c r="DI4" s="7"/>
+      <c r="DJ4" s="7"/>
+      <c r="DK4" s="7"/>
+      <c r="DL4" s="7"/>
+      <c r="DM4" s="7"/>
+      <c r="DN4" s="7"/>
+      <c r="DO4" s="7"/>
+      <c r="DP4" s="7"/>
+      <c r="DQ4" s="7"/>
+      <c r="DR4" s="7"/>
+      <c r="DS4" s="7"/>
+      <c r="DT4" s="7"/>
+      <c r="DU4" s="7"/>
+      <c r="DV4" s="7"/>
+      <c r="DW4" s="7"/>
+      <c r="DX4" s="7"/>
+      <c r="DY4" s="7"/>
+      <c r="DZ4" s="7"/>
+      <c r="EA4" s="7"/>
+      <c r="EB4" s="7"/>
+      <c r="EC4" s="7"/>
+      <c r="ED4" s="7"/>
+      <c r="EE4" s="7"/>
+      <c r="EF4" s="7"/>
+      <c r="EG4" s="7"/>
+      <c r="EH4" s="7"/>
+      <c r="EI4" s="7"/>
+      <c r="EJ4" s="7"/>
+      <c r="EK4" s="7"/>
+      <c r="EL4" s="7"/>
+      <c r="EM4" s="7"/>
+      <c r="EN4" s="7"/>
+      <c r="EO4" s="7"/>
+      <c r="EP4" s="7"/>
+      <c r="EQ4" s="7"/>
+      <c r="ER4" s="7"/>
+      <c r="ES4" s="7"/>
+      <c r="ET4" s="7"/>
+      <c r="EU4" s="7"/>
+      <c r="EV4" s="7"/>
+      <c r="EW4" s="7"/>
+      <c r="EX4" s="7"/>
+      <c r="EY4" s="7"/>
+      <c r="EZ4" s="7"/>
+      <c r="FA4" s="7"/>
+      <c r="FB4" s="7"/>
+      <c r="FC4" s="7"/>
+      <c r="FD4" s="7"/>
+      <c r="FE4" s="7"/>
+      <c r="FF4" s="7"/>
+      <c r="FG4" s="7"/>
+      <c r="FH4" s="7"/>
+      <c r="FI4" s="7"/>
+      <c r="FJ4" s="7"/>
+      <c r="FK4" s="7"/>
+      <c r="FL4" s="7"/>
+      <c r="FM4" s="7"/>
+      <c r="FN4" s="7"/>
+      <c r="FO4" s="7"/>
+      <c r="FP4" s="7"/>
+      <c r="FQ4" s="7"/>
+      <c r="FR4" s="7"/>
+      <c r="FS4" s="7"/>
+      <c r="FT4" s="7"/>
+      <c r="FU4" s="7"/>
+      <c r="FV4" s="7"/>
+      <c r="FW4" s="7"/>
+      <c r="FX4" s="7"/>
+      <c r="FY4" s="7"/>
+      <c r="FZ4" s="7"/>
+      <c r="GA4" s="7"/>
+      <c r="GB4" s="7"/>
+      <c r="GC4" s="7"/>
+      <c r="GD4" s="7"/>
+      <c r="GE4" s="7"/>
+      <c r="GF4" s="7"/>
+      <c r="GG4" s="7"/>
+      <c r="GH4" s="7"/>
+      <c r="GI4" s="7"/>
+      <c r="GJ4" s="7"/>
+      <c r="GK4" s="7"/>
+      <c r="GL4" s="7"/>
+      <c r="GM4" s="7"/>
+      <c r="GN4" s="7"/>
+      <c r="GO4" s="7"/>
+      <c r="GP4" s="7"/>
+      <c r="GQ4" s="7"/>
+      <c r="GR4" s="7"/>
+      <c r="GS4" s="7"/>
+      <c r="GT4" s="7"/>
+      <c r="GU4" s="7"/>
+      <c r="GV4" s="7"/>
+      <c r="GW4" s="7"/>
+      <c r="GX4" s="7"/>
+      <c r="GY4" s="7"/>
+      <c r="GZ4" s="7"/>
+      <c r="HA4" s="7"/>
+      <c r="HB4" s="7"/>
+      <c r="HC4" s="7"/>
+      <c r="HD4" s="7"/>
+      <c r="HE4" s="7"/>
+      <c r="HF4" s="7"/>
+      <c r="HG4" s="7"/>
+      <c r="HH4" s="7"/>
+      <c r="HI4" s="7"/>
+      <c r="HJ4" s="7"/>
+      <c r="HK4" s="7"/>
+      <c r="HL4" s="7"/>
+      <c r="HM4" s="7"/>
+      <c r="HN4" s="7"/>
+      <c r="HO4" s="7"/>
+      <c r="HP4" s="7"/>
+      <c r="HQ4" s="7"/>
+      <c r="HR4" s="7"/>
+      <c r="HS4" s="7"/>
+      <c r="HT4" s="7"/>
+      <c r="HU4" s="7"/>
+      <c r="HV4" s="7"/>
+      <c r="HW4" s="7"/>
+      <c r="HX4" s="7"/>
+      <c r="HY4" s="7"/>
+      <c r="HZ4" s="7"/>
+      <c r="IA4" s="7"/>
+      <c r="IB4" s="7"/>
+      <c r="IC4" s="7"/>
+      <c r="ID4" s="7"/>
+      <c r="IE4" s="7"/>
+      <c r="IF4" s="7"/>
+      <c r="IG4" s="7"/>
+      <c r="IH4" s="7"/>
+      <c r="II4" s="7"/>
+      <c r="IJ4" s="7"/>
+      <c r="IK4" s="7"/>
+      <c r="IL4" s="7"/>
+      <c r="IM4" s="7"/>
+      <c r="IN4" s="7"/>
+      <c r="IO4" s="7"/>
+      <c r="IP4" s="7"/>
+      <c r="IQ4" s="7"/>
+      <c r="IR4" s="7"/>
+      <c r="IS4" s="7"/>
+      <c r="IT4" s="7"/>
+      <c r="IU4" s="7"/>
+      <c r="IV4" s="7"/>
+      <c r="IW4" s="7"/>
+      <c r="IX4" s="7"/>
+      <c r="IY4" s="7"/>
+      <c r="IZ4" s="7"/>
+      <c r="JA4" s="7"/>
+      <c r="JB4" s="7"/>
+      <c r="JC4" s="7"/>
+      <c r="JD4" s="7"/>
+      <c r="JE4" s="7"/>
+      <c r="JF4" s="7"/>
+      <c r="JG4" s="7"/>
+      <c r="JH4" s="7"/>
+      <c r="JI4" s="7"/>
+      <c r="JJ4" s="7"/>
+      <c r="JK4" s="7"/>
+      <c r="JL4" s="7"/>
+      <c r="JM4" s="7"/>
+      <c r="JN4" s="7"/>
+      <c r="JO4" s="7"/>
+      <c r="JP4" s="7"/>
+      <c r="JQ4" s="7"/>
+      <c r="JR4" s="7"/>
+      <c r="JS4" s="7"/>
+      <c r="JT4" s="7"/>
+      <c r="JU4" s="7"/>
+      <c r="JV4" s="7"/>
+      <c r="JW4" s="7"/>
+      <c r="JX4" s="7"/>
+      <c r="JY4" s="7"/>
+      <c r="JZ4" s="7"/>
+      <c r="KA4" s="7"/>
+      <c r="KB4" s="7"/>
+      <c r="KC4" s="7"/>
+      <c r="KD4" s="7"/>
+      <c r="KE4" s="7"/>
+      <c r="KF4" s="7"/>
+      <c r="KG4" s="7"/>
+      <c r="KH4" s="7"/>
+      <c r="KI4" s="7"/>
+      <c r="KJ4" s="7"/>
+      <c r="KK4" s="7"/>
+      <c r="KL4" s="7"/>
+      <c r="KM4" s="7"/>
+      <c r="KN4" s="7"/>
+      <c r="KO4" s="7"/>
+      <c r="KP4" s="7"/>
+      <c r="KQ4" s="7"/>
+      <c r="KR4" s="7"/>
+      <c r="KS4" s="7"/>
+      <c r="KT4" s="7"/>
+      <c r="KU4" s="7"/>
+      <c r="KV4" s="7"/>
+      <c r="KW4" s="7"/>
+      <c r="KX4" s="7"/>
+      <c r="KY4" s="7"/>
+      <c r="KZ4" s="7"/>
+      <c r="LA4" s="7"/>
+      <c r="LB4" s="7"/>
+      <c r="LC4" s="7"/>
+      <c r="LD4" s="7"/>
+      <c r="LE4" s="7"/>
+      <c r="LF4" s="7"/>
+      <c r="LG4" s="7"/>
+      <c r="LH4" s="7"/>
+      <c r="LI4" s="7"/>
+      <c r="LJ4" s="7"/>
+      <c r="LK4" s="7"/>
+      <c r="LL4" s="7"/>
+      <c r="LM4" s="7"/>
+      <c r="LN4" s="7"/>
+      <c r="LO4" s="7"/>
+      <c r="LP4" s="7"/>
+      <c r="LQ4" s="7"/>
+      <c r="LR4" s="7"/>
+      <c r="LS4" s="7"/>
+      <c r="LT4" s="7"/>
+      <c r="LU4" s="7"/>
+      <c r="LV4" s="7"/>
+      <c r="LW4" s="7"/>
+      <c r="LX4" s="7"/>
+      <c r="LY4" s="7"/>
+      <c r="LZ4" s="7"/>
+      <c r="MA4" s="7"/>
+      <c r="MB4" s="7"/>
+      <c r="MC4" s="7"/>
+      <c r="MD4" s="7"/>
+      <c r="ME4" s="7"/>
+      <c r="MF4" s="7"/>
+      <c r="MG4" s="7"/>
+      <c r="MH4" s="7"/>
+      <c r="MI4" s="7"/>
+      <c r="MJ4" s="7"/>
+      <c r="MK4" s="7"/>
+      <c r="ML4" s="7"/>
+      <c r="MM4" s="7"/>
+      <c r="MN4" s="7"/>
+      <c r="MO4" s="7"/>
+      <c r="MP4" s="7"/>
+      <c r="MQ4" s="7"/>
+      <c r="MR4" s="7"/>
+      <c r="MS4" s="7"/>
+      <c r="MT4" s="7"/>
+      <c r="MU4" s="7"/>
+      <c r="MV4" s="7"/>
+      <c r="MW4" s="7"/>
+      <c r="MX4" s="7"/>
+      <c r="MY4" s="7"/>
+      <c r="MZ4" s="7"/>
+      <c r="NA4" s="7"/>
+      <c r="NB4" s="7"/>
+      <c r="NC4" s="7"/>
+      <c r="ND4" s="7"/>
+      <c r="NE4" s="7"/>
+      <c r="NF4" s="7"/>
+      <c r="NG4" s="7"/>
+      <c r="NH4" s="7"/>
+      <c r="NI4" s="7"/>
+      <c r="NJ4" s="7"/>
+      <c r="NK4" s="7"/>
+      <c r="NL4" s="7"/>
+      <c r="NM4" s="7"/>
+      <c r="NN4" s="7"/>
+      <c r="NO4" s="7"/>
+      <c r="NP4" s="7"/>
+      <c r="NQ4" s="7"/>
+      <c r="NR4" s="7"/>
+      <c r="NS4" s="7"/>
+      <c r="NT4" s="7"/>
+      <c r="NU4" s="7"/>
+      <c r="NV4" s="7"/>
+      <c r="NW4" s="7"/>
+      <c r="NX4" s="7"/>
+      <c r="NY4" s="7"/>
+      <c r="NZ4" s="7"/>
+      <c r="OA4" s="7"/>
+      <c r="OB4" s="7"/>
+      <c r="OC4" s="7"/>
+      <c r="OD4" s="7"/>
+      <c r="OE4" s="7"/>
+      <c r="OF4" s="7"/>
+      <c r="OG4" s="7"/>
+      <c r="OH4" s="7"/>
+      <c r="OI4" s="7"/>
+      <c r="OJ4" s="7"/>
+      <c r="OK4" s="7"/>
+      <c r="OL4" s="7"/>
+      <c r="OM4" s="7"/>
+      <c r="ON4" s="7"/>
+      <c r="OO4" s="7"/>
+      <c r="OP4" s="7"/>
+      <c r="OQ4" s="7"/>
+      <c r="OR4" s="7"/>
+      <c r="OS4" s="7"/>
+      <c r="OT4" s="7"/>
+      <c r="OU4" s="7"/>
+      <c r="OV4" s="7"/>
+      <c r="OW4" s="7"/>
+      <c r="OX4" s="7"/>
+      <c r="OY4" s="7"/>
+      <c r="OZ4" s="7"/>
+      <c r="PA4" s="7"/>
+      <c r="PB4" s="7"/>
+      <c r="PC4" s="7"/>
+      <c r="PD4" s="7"/>
+      <c r="PE4" s="7"/>
+      <c r="PF4" s="7"/>
+      <c r="PG4" s="7"/>
+      <c r="PH4" s="7"/>
+      <c r="PI4" s="7"/>
+      <c r="PJ4" s="7"/>
+      <c r="PK4" s="7"/>
+      <c r="PL4" s="7"/>
+      <c r="PM4" s="7"/>
+      <c r="PN4" s="7"/>
+      <c r="PO4" s="7"/>
+      <c r="PP4" s="7"/>
+      <c r="PQ4" s="7"/>
+      <c r="PR4" s="7"/>
+      <c r="PS4" s="7"/>
+      <c r="PT4" s="7"/>
+      <c r="PU4" s="7"/>
+      <c r="PV4" s="7"/>
+      <c r="PW4" s="7"/>
+      <c r="PX4" s="7"/>
+      <c r="PY4" s="7"/>
+      <c r="PZ4" s="7"/>
+      <c r="QA4" s="7"/>
+      <c r="QB4" s="7"/>
+      <c r="QC4" s="7"/>
+      <c r="QD4" s="7"/>
+      <c r="QE4" s="7"/>
+      <c r="QF4" s="7"/>
+      <c r="QG4" s="7"/>
+      <c r="QH4" s="7"/>
+      <c r="QI4" s="7"/>
+      <c r="QJ4" s="7"/>
+      <c r="QK4" s="7"/>
+      <c r="QL4" s="7"/>
+      <c r="QM4" s="7"/>
+      <c r="QN4" s="7"/>
+      <c r="QO4" s="7"/>
+      <c r="QP4" s="7"/>
+      <c r="QQ4" s="7"/>
+      <c r="QR4" s="7"/>
+      <c r="QS4" s="7"/>
+      <c r="QT4" s="7"/>
+      <c r="QU4" s="7"/>
+      <c r="QV4" s="7"/>
+      <c r="QW4" s="7"/>
+      <c r="QX4" s="7"/>
+      <c r="QY4" s="7"/>
+      <c r="QZ4" s="7"/>
+      <c r="RA4" s="7"/>
+      <c r="RB4" s="7"/>
+      <c r="RC4" s="7"/>
+      <c r="RD4" s="7"/>
+      <c r="RE4" s="7"/>
+      <c r="RF4" s="7"/>
+      <c r="RG4" s="7"/>
+      <c r="RH4" s="7"/>
+      <c r="RI4" s="7"/>
+      <c r="RJ4" s="7"/>
+      <c r="RK4" s="7"/>
+      <c r="RL4" s="7"/>
+      <c r="RM4" s="7"/>
+      <c r="RN4" s="7"/>
+      <c r="RO4" s="7"/>
+      <c r="RP4" s="7"/>
+      <c r="RQ4" s="7"/>
+      <c r="RR4" s="7"/>
+      <c r="RS4" s="7"/>
+      <c r="RT4" s="7"/>
+      <c r="RU4" s="7"/>
+      <c r="RV4" s="7"/>
+      <c r="RW4" s="7"/>
+      <c r="RX4" s="7"/>
+      <c r="RY4" s="7"/>
+      <c r="RZ4" s="7"/>
+      <c r="SA4" s="7"/>
+      <c r="SB4" s="7"/>
+      <c r="SC4" s="7"/>
+      <c r="SD4" s="7"/>
+      <c r="SE4" s="7"/>
+      <c r="SF4" s="7"/>
+      <c r="SG4" s="7"/>
+      <c r="SH4" s="7"/>
+      <c r="SI4" s="7"/>
+      <c r="SJ4" s="7"/>
+      <c r="SK4" s="7"/>
+      <c r="SL4" s="7"/>
+      <c r="SM4" s="7"/>
+      <c r="SN4" s="7"/>
+      <c r="SO4" s="7"/>
+      <c r="SP4" s="7"/>
+      <c r="SQ4" s="7"/>
+      <c r="SR4" s="7"/>
+      <c r="SS4" s="7"/>
+      <c r="ST4" s="7"/>
+      <c r="SU4" s="7"/>
+      <c r="SV4" s="7"/>
+      <c r="SW4" s="7"/>
+      <c r="SX4" s="7"/>
+      <c r="SY4" s="7"/>
+      <c r="SZ4" s="7"/>
+      <c r="TA4" s="7"/>
+      <c r="TB4" s="7"/>
+      <c r="TC4" s="7"/>
+      <c r="TD4" s="7"/>
+      <c r="TE4" s="7"/>
+      <c r="TF4" s="7"/>
+      <c r="TG4" s="7"/>
+      <c r="TH4" s="7"/>
+      <c r="TI4" s="7"/>
+      <c r="TJ4" s="7"/>
+      <c r="TK4" s="7"/>
+      <c r="TL4" s="7"/>
+      <c r="TM4" s="7"/>
+      <c r="TN4" s="7"/>
+      <c r="TO4" s="7"/>
+      <c r="TP4" s="7"/>
+      <c r="TQ4" s="7"/>
+      <c r="TR4" s="7"/>
+      <c r="TS4" s="7"/>
+      <c r="TT4" s="7"/>
+      <c r="TU4" s="7"/>
+      <c r="TV4" s="7"/>
+      <c r="TW4" s="7"/>
+      <c r="TX4" s="7"/>
+      <c r="TY4" s="7"/>
+      <c r="TZ4" s="7"/>
+      <c r="UA4" s="7"/>
+      <c r="UB4" s="7"/>
+      <c r="UC4" s="7"/>
+      <c r="UD4" s="7"/>
+      <c r="UE4" s="7"/>
+      <c r="UF4" s="7"/>
+      <c r="UG4" s="7"/>
+      <c r="UH4" s="7"/>
+      <c r="UI4" s="7"/>
+      <c r="UJ4" s="7"/>
+      <c r="UK4" s="7"/>
+      <c r="UL4" s="7"/>
+      <c r="UM4" s="7"/>
+      <c r="UN4" s="7"/>
+      <c r="UO4" s="7"/>
+      <c r="UP4" s="7"/>
+      <c r="UQ4" s="7"/>
+      <c r="UR4" s="7"/>
+      <c r="US4" s="7"/>
+      <c r="UT4" s="7"/>
+      <c r="UU4" s="7"/>
+      <c r="UV4" s="7"/>
+      <c r="UW4" s="7"/>
+      <c r="UX4" s="7"/>
+      <c r="UY4" s="7"/>
+      <c r="UZ4" s="7"/>
+      <c r="VA4" s="7"/>
+      <c r="VB4" s="7"/>
+      <c r="VC4" s="7"/>
+      <c r="VD4" s="7"/>
+      <c r="VE4" s="7"/>
+      <c r="VF4" s="7"/>
+      <c r="VG4" s="7"/>
+      <c r="VH4" s="7"/>
+      <c r="VI4" s="7"/>
+      <c r="VJ4" s="7"/>
+      <c r="VK4" s="7"/>
+      <c r="VL4" s="7"/>
+      <c r="VM4" s="7"/>
+      <c r="VN4" s="7"/>
+      <c r="VO4" s="7"/>
+      <c r="VP4" s="7"/>
+      <c r="VQ4" s="7"/>
+      <c r="VR4" s="7"/>
+      <c r="VS4" s="7"/>
+      <c r="VT4" s="7"/>
+      <c r="VU4" s="7"/>
+      <c r="VV4" s="7"/>
+      <c r="VW4" s="7"/>
+      <c r="VX4" s="7"/>
+      <c r="VY4" s="7"/>
+      <c r="VZ4" s="7"/>
+      <c r="WA4" s="7"/>
+      <c r="WB4" s="7"/>
+      <c r="WC4" s="7"/>
+      <c r="WD4" s="7"/>
+      <c r="WE4" s="7"/>
+      <c r="WF4" s="7"/>
+      <c r="WG4" s="7"/>
+      <c r="WH4" s="7"/>
+      <c r="WI4" s="7"/>
+      <c r="WJ4" s="7"/>
+      <c r="WK4" s="7"/>
+      <c r="WL4" s="7"/>
+      <c r="WM4" s="7"/>
+      <c r="WN4" s="7"/>
+      <c r="WO4" s="7"/>
+      <c r="WP4" s="7"/>
+      <c r="WQ4" s="7"/>
+      <c r="WR4" s="7"/>
+      <c r="WS4" s="7"/>
+      <c r="WT4" s="7"/>
+      <c r="WU4" s="7"/>
+      <c r="WV4" s="7"/>
+      <c r="WW4" s="7"/>
+      <c r="WX4" s="7"/>
+      <c r="WY4" s="7"/>
+      <c r="WZ4" s="7"/>
+      <c r="XA4" s="7"/>
+      <c r="XB4" s="7"/>
+      <c r="XC4" s="7"/>
+      <c r="XD4" s="7"/>
+      <c r="XE4" s="7"/>
+      <c r="XF4" s="7"/>
+      <c r="XG4" s="7"/>
+      <c r="XH4" s="7"/>
+      <c r="XI4" s="7"/>
+      <c r="XJ4" s="7"/>
+      <c r="XK4" s="7"/>
+      <c r="XL4" s="7"/>
+      <c r="XM4" s="7"/>
+      <c r="XN4" s="7"/>
+      <c r="XO4" s="7"/>
+      <c r="XP4" s="7"/>
+      <c r="XQ4" s="7"/>
+      <c r="XR4" s="7"/>
+      <c r="XS4" s="7"/>
+      <c r="XT4" s="7"/>
+      <c r="XU4" s="7"/>
+      <c r="XV4" s="7"/>
+      <c r="XW4" s="7"/>
+      <c r="XX4" s="7"/>
+      <c r="XY4" s="7"/>
+      <c r="XZ4" s="7"/>
+      <c r="YA4" s="7"/>
+      <c r="YB4" s="7"/>
+      <c r="YC4" s="7"/>
+      <c r="YD4" s="7"/>
+      <c r="YE4" s="7"/>
+      <c r="YF4" s="7"/>
+      <c r="YG4" s="7"/>
+      <c r="YH4" s="7"/>
+      <c r="YI4" s="7"/>
+      <c r="YJ4" s="7"/>
+      <c r="YK4" s="7"/>
+      <c r="YL4" s="7"/>
+      <c r="YM4" s="7"/>
+      <c r="YN4" s="7"/>
+      <c r="YO4" s="7"/>
+      <c r="YP4" s="7"/>
+      <c r="YQ4" s="7"/>
+      <c r="YR4" s="7"/>
+      <c r="YS4" s="7"/>
+      <c r="YT4" s="7"/>
+      <c r="YU4" s="7"/>
+      <c r="YV4" s="7"/>
+      <c r="YW4" s="7"/>
+      <c r="YX4" s="7"/>
+      <c r="YY4" s="7"/>
+      <c r="YZ4" s="7"/>
+      <c r="ZA4" s="7"/>
+      <c r="ZB4" s="7"/>
+      <c r="ZC4" s="7"/>
+      <c r="ZD4" s="7"/>
+      <c r="ZE4" s="7"/>
+      <c r="ZF4" s="7"/>
+      <c r="ZG4" s="7"/>
+      <c r="ZH4" s="7"/>
+      <c r="ZI4" s="7"/>
+      <c r="ZJ4" s="7"/>
+      <c r="ZK4" s="7"/>
+      <c r="ZL4" s="7"/>
+      <c r="ZM4" s="7"/>
+      <c r="ZN4" s="7"/>
+      <c r="ZO4" s="7"/>
+      <c r="ZP4" s="7"/>
+      <c r="ZQ4" s="7"/>
+      <c r="ZR4" s="7"/>
+      <c r="ZS4" s="7"/>
+      <c r="ZT4" s="7"/>
+      <c r="ZU4" s="7"/>
+      <c r="ZV4" s="7"/>
+      <c r="ZW4" s="7"/>
+      <c r="ZX4" s="7"/>
+      <c r="ZY4" s="7"/>
+      <c r="ZZ4" s="7"/>
+      <c r="AAA4" s="7"/>
+      <c r="AAB4" s="7"/>
+      <c r="AAC4" s="7"/>
+      <c r="AAD4" s="7"/>
+      <c r="AAE4" s="7"/>
+      <c r="AAF4" s="7"/>
+      <c r="AAG4" s="7"/>
+      <c r="AAH4" s="7"/>
+      <c r="AAI4" s="7"/>
+      <c r="AAJ4" s="7"/>
+      <c r="AAK4" s="7"/>
+      <c r="AAL4" s="7"/>
+      <c r="AAM4" s="7"/>
+      <c r="AAN4" s="7"/>
+      <c r="AAO4" s="7"/>
+      <c r="AAP4" s="7"/>
+      <c r="AAQ4" s="7"/>
+      <c r="AAR4" s="7"/>
+      <c r="AAS4" s="7"/>
+      <c r="AAT4" s="7"/>
+      <c r="AAU4" s="7"/>
+      <c r="AAV4" s="7"/>
+      <c r="AAW4" s="7"/>
+      <c r="AAX4" s="7"/>
+      <c r="AAY4" s="7"/>
+      <c r="AAZ4" s="7"/>
+      <c r="ABA4" s="7"/>
+      <c r="ABB4" s="7"/>
+      <c r="ABC4" s="7"/>
+      <c r="ABD4" s="7"/>
+      <c r="ABE4" s="7"/>
+      <c r="ABF4" s="7"/>
+      <c r="ABG4" s="7"/>
+      <c r="ABH4" s="7"/>
+      <c r="ABI4" s="7"/>
+      <c r="ABJ4" s="7"/>
+      <c r="ABK4" s="7"/>
+      <c r="ABL4" s="7"/>
+      <c r="ABM4" s="7"/>
+      <c r="ABN4" s="7"/>
+      <c r="ABO4" s="7"/>
+      <c r="ABP4" s="7"/>
+      <c r="ABQ4" s="7"/>
+      <c r="ABR4" s="7"/>
+      <c r="ABS4" s="7"/>
+      <c r="ABT4" s="7"/>
+      <c r="ABU4" s="7"/>
+      <c r="ABV4" s="7"/>
+      <c r="ABW4" s="7"/>
+      <c r="ABX4" s="7"/>
+      <c r="ABY4" s="7"/>
+      <c r="ABZ4" s="7"/>
+      <c r="ACA4" s="7"/>
+      <c r="ACB4" s="7"/>
+      <c r="ACC4" s="7"/>
+      <c r="ACD4" s="7"/>
+      <c r="ACE4" s="7"/>
+      <c r="ACF4" s="7"/>
+      <c r="ACG4" s="7"/>
+      <c r="ACH4" s="7"/>
+      <c r="ACI4" s="7"/>
+      <c r="ACJ4" s="7"/>
+      <c r="ACK4" s="7"/>
+      <c r="ACL4" s="7"/>
+      <c r="ACM4" s="7"/>
+      <c r="ACN4" s="7"/>
+      <c r="ACO4" s="7"/>
+      <c r="ACP4" s="7"/>
+      <c r="ACQ4" s="7"/>
+      <c r="ACR4" s="7"/>
+      <c r="ACS4" s="7"/>
+      <c r="ACT4" s="7"/>
+      <c r="ACU4" s="7"/>
+      <c r="ACV4" s="7"/>
+      <c r="ACW4" s="7"/>
+      <c r="ACX4" s="7"/>
+      <c r="ACY4" s="7"/>
+      <c r="ACZ4" s="7"/>
+      <c r="ADA4" s="7"/>
+      <c r="ADB4" s="7"/>
+      <c r="ADC4" s="7"/>
+      <c r="ADD4" s="7"/>
+      <c r="ADE4" s="7"/>
+      <c r="ADF4" s="7"/>
+      <c r="ADG4" s="7"/>
+      <c r="ADH4" s="7"/>
+      <c r="ADI4" s="7"/>
+      <c r="ADJ4" s="7"/>
+      <c r="ADK4" s="7"/>
+      <c r="ADL4" s="7"/>
+      <c r="ADM4" s="7"/>
+      <c r="ADN4" s="7"/>
+      <c r="ADO4" s="7"/>
+      <c r="ADP4" s="7"/>
+      <c r="ADQ4" s="7"/>
+      <c r="ADR4" s="7"/>
+      <c r="ADS4" s="7"/>
+      <c r="ADT4" s="7"/>
+      <c r="ADU4" s="7"/>
+      <c r="ADV4" s="7"/>
+      <c r="ADW4" s="7"/>
+      <c r="ADX4" s="7"/>
+      <c r="ADY4" s="7"/>
+      <c r="ADZ4" s="7"/>
+      <c r="AEA4" s="7"/>
+      <c r="AEB4" s="7"/>
+      <c r="AEC4" s="7"/>
+      <c r="AED4" s="7"/>
+      <c r="AEE4" s="7"/>
+      <c r="AEF4" s="7"/>
+      <c r="AEG4" s="7"/>
+      <c r="AEH4" s="7"/>
+      <c r="AEI4" s="7"/>
+      <c r="AEJ4" s="7"/>
+      <c r="AEK4" s="7"/>
+      <c r="AEL4" s="7"/>
+      <c r="AEM4" s="7"/>
+      <c r="AEN4" s="7"/>
+      <c r="AEO4" s="7"/>
+      <c r="AEP4" s="7"/>
+      <c r="AEQ4" s="7"/>
+      <c r="AER4" s="7"/>
+      <c r="AES4" s="7"/>
+      <c r="AET4" s="7"/>
+      <c r="AEU4" s="7"/>
+      <c r="AEV4" s="7"/>
+      <c r="AEW4" s="7"/>
+      <c r="AEX4" s="7"/>
+      <c r="AEY4" s="7"/>
+      <c r="AEZ4" s="7"/>
+      <c r="AFA4" s="7"/>
+      <c r="AFB4" s="7"/>
+      <c r="AFC4" s="7"/>
+      <c r="AFD4" s="7"/>
+      <c r="AFE4" s="7"/>
+      <c r="AFF4" s="7"/>
+      <c r="AFG4" s="7"/>
+      <c r="AFH4" s="7"/>
+      <c r="AFI4" s="7"/>
+      <c r="AFJ4" s="7"/>
+      <c r="AFK4" s="7"/>
+      <c r="AFL4" s="7"/>
+      <c r="AFM4" s="7"/>
+      <c r="AFN4" s="7"/>
+      <c r="AFO4" s="7"/>
+      <c r="AFP4" s="7"/>
+      <c r="AFQ4" s="7"/>
+      <c r="AFR4" s="7"/>
+      <c r="AFS4" s="7"/>
+      <c r="AFT4" s="7"/>
+      <c r="AFU4" s="7"/>
+      <c r="AFV4" s="7"/>
+      <c r="AFW4" s="7"/>
+      <c r="AFX4" s="7"/>
+      <c r="AFY4" s="7"/>
+      <c r="AFZ4" s="7"/>
+      <c r="AGA4" s="7"/>
+      <c r="AGB4" s="7"/>
+      <c r="AGC4" s="7"/>
+      <c r="AGD4" s="7"/>
+      <c r="AGE4" s="7"/>
+      <c r="AGF4" s="7"/>
+      <c r="AGG4" s="7"/>
+      <c r="AGH4" s="7"/>
+      <c r="AGI4" s="7"/>
+      <c r="AGJ4" s="7"/>
+      <c r="AGK4" s="7"/>
+      <c r="AGL4" s="7"/>
+      <c r="AGM4" s="7"/>
+      <c r="AGN4" s="7"/>
+      <c r="AGO4" s="7"/>
+      <c r="AGP4" s="7"/>
+      <c r="AGQ4" s="7"/>
+      <c r="AGR4" s="7"/>
+      <c r="AGS4" s="7"/>
+      <c r="AGT4" s="7"/>
+      <c r="AGU4" s="7"/>
+      <c r="AGV4" s="7"/>
+      <c r="AGW4" s="7"/>
+      <c r="AGX4" s="7"/>
+      <c r="AGY4" s="7"/>
+      <c r="AGZ4" s="7"/>
+      <c r="AHA4" s="7"/>
+      <c r="AHB4" s="7"/>
+      <c r="AHC4" s="7"/>
+      <c r="AHD4" s="7"/>
+      <c r="AHE4" s="7"/>
+      <c r="AHF4" s="7"/>
+      <c r="AHG4" s="7"/>
+      <c r="AHH4" s="7"/>
+      <c r="AHI4" s="7"/>
+      <c r="AHJ4" s="7"/>
+      <c r="AHK4" s="7"/>
+      <c r="AHL4" s="7"/>
+      <c r="AHM4" s="7"/>
+      <c r="AHN4" s="7"/>
+      <c r="AHO4" s="7"/>
+      <c r="AHP4" s="7"/>
+      <c r="AHQ4" s="7"/>
+      <c r="AHR4" s="7"/>
+      <c r="AHS4" s="7"/>
+      <c r="AHT4" s="7"/>
+      <c r="AHU4" s="7"/>
+      <c r="AHV4" s="7"/>
+      <c r="AHW4" s="7"/>
+      <c r="AHX4" s="7"/>
+      <c r="AHY4" s="7"/>
+      <c r="AHZ4" s="7"/>
+      <c r="AIA4" s="7"/>
+      <c r="AIB4" s="7"/>
+      <c r="AIC4" s="7"/>
+      <c r="AID4" s="7"/>
+      <c r="AIE4" s="7"/>
+      <c r="AIF4" s="7"/>
+      <c r="AIG4" s="7"/>
+      <c r="AIH4" s="7"/>
+      <c r="AII4" s="7"/>
+      <c r="AIJ4" s="7"/>
+      <c r="AIK4" s="7"/>
+      <c r="AIL4" s="7"/>
+      <c r="AIM4" s="7"/>
+      <c r="AIN4" s="7"/>
+      <c r="AIO4" s="7"/>
+      <c r="AIP4" s="7"/>
+      <c r="AIQ4" s="7"/>
+      <c r="AIR4" s="7"/>
+      <c r="AIS4" s="7"/>
+      <c r="AIT4" s="7"/>
+      <c r="AIU4" s="7"/>
+      <c r="AIV4" s="7"/>
+      <c r="AIW4" s="7"/>
+      <c r="AIX4" s="7"/>
+      <c r="AIY4" s="7"/>
+      <c r="AIZ4" s="7"/>
+      <c r="AJA4" s="7"/>
+      <c r="AJB4" s="7"/>
+      <c r="AJC4" s="7"/>
+      <c r="AJD4" s="7"/>
+      <c r="AJE4" s="7"/>
+      <c r="AJF4" s="7"/>
+      <c r="AJG4" s="7"/>
+      <c r="AJH4" s="7"/>
+      <c r="AJI4" s="7"/>
+      <c r="AJJ4" s="7"/>
+      <c r="AJK4" s="7"/>
+      <c r="AJL4" s="7"/>
+      <c r="AJM4" s="7"/>
+      <c r="AJN4" s="7"/>
+      <c r="AJO4" s="7"/>
+      <c r="AJP4" s="7"/>
+      <c r="AJQ4" s="7"/>
+      <c r="AJR4" s="7"/>
+      <c r="AJS4" s="7"/>
+      <c r="AJT4" s="7"/>
+      <c r="AJU4" s="7"/>
+      <c r="AJV4" s="7"/>
+      <c r="AJW4" s="7"/>
+      <c r="AJX4" s="7"/>
+      <c r="AJY4" s="7"/>
+      <c r="AJZ4" s="7"/>
+      <c r="AKA4" s="7"/>
+      <c r="AKB4" s="7"/>
+      <c r="AKC4" s="7"/>
+      <c r="AKD4" s="7"/>
+      <c r="AKE4" s="7"/>
+      <c r="AKF4" s="7"/>
+      <c r="AKG4" s="7"/>
+      <c r="AKH4" s="7"/>
+      <c r="AKI4" s="7"/>
+      <c r="AKJ4" s="7"/>
+      <c r="AKK4" s="7"/>
+      <c r="AKL4" s="7"/>
+      <c r="AKM4" s="7"/>
+      <c r="AKN4" s="7"/>
+      <c r="AKO4" s="7"/>
+      <c r="AKP4" s="7"/>
+      <c r="AKQ4" s="7"/>
+      <c r="AKR4" s="7"/>
+      <c r="AKS4" s="7"/>
+      <c r="AKT4" s="7"/>
+      <c r="AKU4" s="7"/>
+      <c r="AKV4" s="7"/>
+      <c r="AKW4" s="7"/>
+      <c r="AKX4" s="7"/>
+      <c r="AKY4" s="7"/>
+      <c r="AKZ4" s="7"/>
+      <c r="ALA4" s="7"/>
+      <c r="ALB4" s="7"/>
+      <c r="ALC4" s="7"/>
+      <c r="ALD4" s="7"/>
+      <c r="ALE4" s="7"/>
+      <c r="ALF4" s="7"/>
+      <c r="ALG4" s="7"/>
+      <c r="ALH4" s="7"/>
+      <c r="ALI4" s="7"/>
+      <c r="ALJ4" s="7"/>
+      <c r="ALK4" s="7"/>
+      <c r="ALL4" s="7"/>
+      <c r="ALM4" s="7"/>
+      <c r="ALN4" s="7"/>
+      <c r="ALO4" s="7"/>
+      <c r="ALP4" s="7"/>
+      <c r="ALQ4" s="7"/>
+      <c r="ALR4" s="7"/>
+      <c r="ALS4" s="7"/>
+      <c r="ALT4" s="7"/>
+      <c r="ALU4" s="7"/>
+      <c r="ALV4" s="7"/>
+      <c r="ALW4" s="7"/>
+      <c r="ALX4" s="7"/>
+      <c r="ALY4" s="7"/>
+      <c r="ALZ4" s="7"/>
+      <c r="AMA4" s="7"/>
+      <c r="AMB4" s="7"/>
+      <c r="AMC4" s="7"/>
+      <c r="AMD4" s="7"/>
+      <c r="AME4" s="7"/>
+      <c r="AMF4" s="7"/>
+      <c r="AMG4" s="7"/>
+      <c r="AMH4" s="7"/>
+      <c r="AMI4" s="7"/>
+      <c r="AMJ4" s="7"/>
+      <c r="AMK4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1016,15 +3199,14 @@
       </c>
       <c r="J5" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L5" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1032,7 +3214,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1042,15 +3224,17 @@
         <v>23</v>
       </c>
       <c r="B6" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1062,15 +3246,14 @@
       </c>
       <c r="J6" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K6" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L6" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1078,7 +3261,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="9" t="n">
+      <c r="S6" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1089,15 +3272,17 @@
         <v>24</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="n">
+        <v>9</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1109,7 +3294,7 @@
       </c>
       <c r="J7" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K7" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -1117,7 +3302,7 @@
       </c>
       <c r="L7" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1125,7 +3310,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1135,15 +3320,17 @@
         <v>25</v>
       </c>
       <c r="B8" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1155,15 +3342,14 @@
       </c>
       <c r="J8" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L8" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1171,7 +3357,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1182,15 +3368,17 @@
         <v>26</v>
       </c>
       <c r="B9" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1202,15 +3390,14 @@
       </c>
       <c r="J9" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L9" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1218,7 +3405,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="9" t="n">
+      <c r="S9" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1264,7 +3451,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="9" t="n">
+      <c r="S10" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1275,15 +3462,17 @@
         <v>28</v>
       </c>
       <c r="B11" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1295,15 +3484,14 @@
       </c>
       <c r="J11" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L11" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1311,7 +3499,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="9" t="n">
+      <c r="S11" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1357,7 +3545,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="9" t="n">
+      <c r="S12" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1368,15 +3556,17 @@
         <v>30</v>
       </c>
       <c r="B13" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1388,15 +3578,14 @@
       </c>
       <c r="J13" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K13" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L13" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -1404,7 +3593,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="9" t="n">
+      <c r="S13" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1450,7 +3639,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="9" t="n">
+      <c r="S14" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1461,15 +3650,17 @@
         <v>32</v>
       </c>
       <c r="B15" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1481,15 +3672,14 @@
       </c>
       <c r="J15" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L15" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -1497,7 +3687,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="9" t="n">
+      <c r="S15" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1543,56 +3733,61 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="9" t="n">
+      <c r="S16" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
       <c r="U16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="n">
+      <c r="B17" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1602,27 +3797,31 @@
       <c r="B18" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -1632,7 +3831,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="9" t="n">
+      <c r="S18" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1644,27 +3843,31 @@
       <c r="B19" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -1674,7 +3877,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="9" t="n">
+      <c r="S19" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1686,27 +3889,31 @@
       <c r="B20" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>0</v>
       </c>
@@ -1716,7 +3923,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="9" t="n">
+      <c r="S20" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1726,31 +3933,36 @@
         <v>38</v>
       </c>
       <c r="B21" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="L21" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -1758,51 +3970,60 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="9" t="n">
+      <c r="S21" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="B22" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" s="18" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="18" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" s="18" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <v>26</v>
+      </c>
+      <c r="L22" s="18" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1846,7 +4067,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="9" t="n">
+      <c r="S23" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1893,7 +4114,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="9" t="n">
+      <c r="S24" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1903,15 +4124,17 @@
         <v>42</v>
       </c>
       <c r="B25" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1923,15 +4146,14 @@
       </c>
       <c r="J25" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K25" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L25" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -1939,7 +4161,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="9" t="n">
+      <c r="S25" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -1950,15 +4172,17 @@
         <v>43</v>
       </c>
       <c r="B26" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -1970,15 +4194,14 @@
       </c>
       <c r="J26" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K26" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L26" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -1986,7 +4209,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="9" t="n">
+      <c r="S26" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -2032,7 +4255,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="9" t="n">
+      <c r="S27" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -2043,15 +4266,17 @@
         <v>45</v>
       </c>
       <c r="B28" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -2063,15 +4288,14 @@
       </c>
       <c r="J28" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L28" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -2079,191 +4303,191 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="9" t="n">
+      <c r="S28" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="U29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="11"/>
-      <c r="K31" s="18" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="19"/>
+      <c r="K31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="19" t="n">
+      <c r="L31" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="21" t="n">
+      <c r="B32" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="K32" s="18" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="K32" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="19" t="n">
+      <c r="L32" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="24" t="n">
+      <c r="B33" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="K33" s="18" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="K33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="19" t="n">
+      <c r="L33" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
         <v>0</v>
       </c>
       <c r="U33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="24" t="n">
+      <c r="B34" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="K34" s="18" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="K34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="19" t="n">
+      <c r="L34" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;60")</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="24" t="n">
+      <c r="B35" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
       <c r="U35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="24" t="n">
+      <c r="B36" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U37" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="20" t="s">
         <v>63</v>
       </c>
       <c r="U39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="27" t="n">
+      <c r="B40" s="32" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="29" t="n">
+      <c r="B41" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="U41" s="30"/>
+      <c r="U41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="29" t="n">
+      <c r="B42" s="34" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="32" t="n">
+      <c r="B43" s="37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2283,8 +4507,8 @@
     <mergeCell ref="C36:F36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2296,322 +4520,481 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="15.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1026" min="8" style="1" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="38" t="s">
         <v>71</v>
       </c>
+      <c r="F1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="n">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="n">
         <v>4</v>
       </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="n">
+        <f aca="false">SUM(B2:E2)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="n">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="n">
+        <f aca="false">SUM(B3:E3)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F4" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="n">
+        <f aca="false">SUM(B4:E4)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="n">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="n">
         <v>4</v>
       </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="n">
+        <f aca="false">SUM(B5:E5)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33" t="n">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="n">
         <v>4</v>
       </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="n">
+        <f aca="false">SUM(B6:E6)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="n">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="n">
+        <f aca="false">SUM(B7:E7)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="n">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="n">
+        <f aca="false">SUM(B8:E8)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33" t="n">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="n">
+        <f aca="false">SUM(B9:E9)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="n">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="n">
+        <f aca="false">SUM(B10:E10)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="n">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="n">
+        <f aca="false">SUM(B11:E11)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="n">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="n">
+        <f aca="false">SUM(B12:E12)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="33" t="n">
+      <c r="B13" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="n">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="n">
+        <f aca="false">SUM(B13:E13)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="n">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="n">
+        <f aca="false">SUM(B14:E14)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33" t="n">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="n">
+        <f aca="false">SUM(B15:E15)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="n">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="n">
         <v>4</v>
       </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="n">
+        <f aca="false">SUM(B16:E16)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33" t="n">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="n">
+        <f aca="false">SUM(B17:E17)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="33" t="n">
+      <c r="B18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="n">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="n">
+        <f aca="false">SUM(B18:E18)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="n">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="n">
+        <f aca="false">SUM(B19:E19)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33" t="n">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="n">
         <v>4</v>
       </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="n">
+        <f aca="false">SUM(B20:E20)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="n">
+        <f aca="false">SUM(B21:E21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="n">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="n">
+        <f aca="false">SUM(B22:E22)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="33" t="n">
+      <c r="B23" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="n">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="n">
         <v>5</v>
       </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="n">
+        <f aca="false">SUM(B23:E23)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="n">
+        <f aca="false">SUM(B24:E24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="33" t="n">
+      <c r="B25" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="n">
+        <f aca="false">SUM(B25:E25)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -252,11 +252,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -334,7 +333,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +362,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
         <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AE00"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
@@ -605,7 +610,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -658,10 +663,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -674,10 +675,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,6 +764,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,7 +850,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00AE00"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1040,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3214,7 +3215,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3261,7 +3262,7 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="13" t="n">
+      <c r="S6" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3310,7 +3311,7 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="13" t="n">
+      <c r="S8" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3375,7 +3376,7 @@
       <c r="E9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
@@ -3405,7 +3406,7 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="13" t="n">
+      <c r="S9" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3415,15 +3416,17 @@
         <v>27</v>
       </c>
       <c r="B10" s="11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="J10" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K10" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -3443,7 +3446,7 @@
       </c>
       <c r="L10" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -3451,7 +3454,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="13" t="n">
+      <c r="S10" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3499,7 +3502,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="13" t="n">
+      <c r="S11" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3509,15 +3512,17 @@
         <v>29</v>
       </c>
       <c r="B12" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -3529,7 +3534,7 @@
       </c>
       <c r="J12" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K12" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -3537,7 +3542,7 @@
       </c>
       <c r="L12" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -3545,7 +3550,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="13" t="n">
+      <c r="S12" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3593,7 +3598,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="13" t="n">
+      <c r="S13" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3603,15 +3608,17 @@
         <v>31</v>
       </c>
       <c r="B14" s="11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -3623,7 +3630,7 @@
       </c>
       <c r="J14" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -3631,7 +3638,7 @@
       </c>
       <c r="L14" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -3639,7 +3646,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="13" t="n">
+      <c r="S14" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3687,7 +3694,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="13" t="n">
+      <c r="S15" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3697,15 +3704,17 @@
         <v>33</v>
       </c>
       <c r="B16" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -3717,7 +3726,7 @@
       </c>
       <c r="J16" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -3725,7 +3734,7 @@
       </c>
       <c r="L16" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -3733,59 +3742,59 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
       <c r="U16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="n">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="15" t="n">
+      <c r="H17" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J17" s="15" t="n">
+      <c r="J17" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K17" s="15" t="n">
+      <c r="K17" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="L17" s="15" t="n">
+      <c r="L17" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17" t="n">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3795,35 +3804,37 @@
         <v>35</v>
       </c>
       <c r="B18" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I18" s="14" t="n">
+      <c r="I18" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L18" s="14" t="n">
+      <c r="L18" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -3831,7 +3842,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="13" t="n">
+      <c r="S18" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3841,35 +3852,37 @@
         <v>36</v>
       </c>
       <c r="B19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I19" s="14" t="n">
+      <c r="I19" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L19" s="14" t="n">
+      <c r="L19" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -3877,7 +3890,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="13" t="n">
+      <c r="S19" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3887,35 +3900,37 @@
         <v>37</v>
       </c>
       <c r="B20" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I20" s="14" t="n">
+      <c r="I20" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J20" s="14" t="n">
+      <c r="J20" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L20" s="14" t="n">
+      <c r="L20" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -3923,7 +3938,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="13" t="n">
+      <c r="S20" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3935,32 +3950,32 @@
       <c r="B21" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="n">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="n">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I21" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>10</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K21" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="L21" s="14" t="n">
+      <c r="L21" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>47</v>
       </c>
@@ -3970,58 +3985,58 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="13" t="n">
+      <c r="S21" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="18" t="n">
+      <c r="E22" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="n">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I22" s="18" t="n">
+      <c r="I22" s="16" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J22" s="18" t="n">
+      <c r="J22" s="16" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K22" s="18" t="n">
+      <c r="K22" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="L22" s="18" t="n">
+      <c r="L22" s="16" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="17" t="n">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4031,15 +4046,17 @@
         <v>40</v>
       </c>
       <c r="B23" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -4051,7 +4068,7 @@
       </c>
       <c r="J23" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -4059,7 +4076,7 @@
       </c>
       <c r="L23" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -4067,7 +4084,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="13" t="n">
+      <c r="S23" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4078,15 +4095,17 @@
         <v>41</v>
       </c>
       <c r="B24" s="11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -4098,7 +4117,7 @@
       </c>
       <c r="J24" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
@@ -4106,7 +4125,7 @@
       </c>
       <c r="L24" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -4114,7 +4133,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="13" t="n">
+      <c r="S24" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4161,7 +4180,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="13" t="n">
+      <c r="S25" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4209,7 +4228,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="13" t="n">
+      <c r="S26" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4219,15 +4238,17 @@
         <v>44</v>
       </c>
       <c r="B27" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
@@ -4247,7 +4268,7 @@
       </c>
       <c r="L27" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -4255,7 +4276,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="13" t="n">
+      <c r="S27" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4303,191 +4324,191 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="13" t="n">
+      <c r="S28" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
       <c r="U29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="20" t="n">
+      <c r="B30" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="21"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19"/>
-      <c r="K31" s="24" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="17"/>
+      <c r="K31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="14" t="n">
+      <c r="L31" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
         <v>2</v>
       </c>
       <c r="U31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="26" t="n">
+      <c r="B32" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="K32" s="24" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="K32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="14" t="n">
+      <c r="L32" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="29" t="n">
+      <c r="B33" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="K33" s="24" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="K33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="14" t="n">
+      <c r="L33" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
         <v>0</v>
       </c>
       <c r="U33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="29" t="n">
+      <c r="B34" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="K34" s="24" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="K34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="14" t="n">
+      <c r="L34" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;60")</f>
         <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="29" t="n">
+      <c r="B35" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
       <c r="U35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="29" t="n">
+      <c r="B36" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U37" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="18" t="s">
         <v>63</v>
       </c>
       <c r="U39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="32" t="n">
+      <c r="B40" s="30" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="34" t="n">
+      <c r="B41" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="U41" s="35"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="34" t="n">
+      <c r="B42" s="32" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="37" t="n">
+      <c r="B43" s="35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4527,7 +4548,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4540,453 +4561,453 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="n">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="n">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="n">
         <f aca="false">SUM(B2:E2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="n">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="n">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="n">
         <f aca="false">SUM(B3:E3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="n">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="n">
         <f aca="false">SUM(B4:E4)</f>
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="n">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="n">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="n">
         <f aca="false">SUM(B5:E5)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="n">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="n">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="n">
         <f aca="false">SUM(B6:E6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="n">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="n">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="n">
         <f aca="false">SUM(B7:E7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="n">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="n">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="n">
         <f aca="false">SUM(B8:E8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="n">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="n">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="n">
         <f aca="false">SUM(B9:E9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="n">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="n">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="n">
         <f aca="false">SUM(B10:E10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="n">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="n">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="n">
         <f aca="false">SUM(B11:E11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="n">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="n">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="n">
         <f aca="false">SUM(B12:E12)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="n">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="n">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="n">
         <f aca="false">SUM(B13:E13)</f>
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="n">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="n">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="n">
         <f aca="false">SUM(B14:E14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="n">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="n">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="n">
         <f aca="false">SUM(B15:E15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="n">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="n">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="n">
         <f aca="false">SUM(B16:E16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="n">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="n">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="n">
         <f aca="false">SUM(B17:E17)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B18" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="n">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18" t="n">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="n">
         <f aca="false">SUM(B18:E18)</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="n">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="n">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="n">
         <f aca="false">SUM(B19:E19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="n">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="n">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="n">
         <f aca="false">SUM(B20:E20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="n">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="n">
         <f aca="false">SUM(B21:E21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="n">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="n">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="n">
         <f aca="false">SUM(B22:E22)</f>
         <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="n">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="n">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="n">
         <f aca="false">SUM(B23:E23)</f>
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="n">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="n">
         <f aca="false">SUM(B24:E24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="18" t="n">
+      <c r="B25" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="n">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="n">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16" t="n">
         <f aca="false">SUM(B25:E25)</f>
         <v>6</v>
       </c>

--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -333,7 +333,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +350,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
         <bgColor rgb="FFB9CDE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -610,7 +616,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -671,11 +677,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,7 +753,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -759,15 +769,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,7 +816,7 @@
     <cellStyle name="Обычный 9" xfId="45"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -834,6 +844,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1041,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3180,8 +3198,12 @@
       <c r="B5" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" s="11" t="n">
         <v>5</v>
       </c>
@@ -3192,11 +3214,11 @@
       </c>
       <c r="H5" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I5" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J5" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3207,7 +3229,7 @@
       </c>
       <c r="L5" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -3217,7 +3239,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3227,8 +3249,12 @@
       <c r="B6" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="11" t="n">
         <v>6</v>
       </c>
@@ -3239,11 +3265,11 @@
       </c>
       <c r="H6" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I6" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3254,7 +3280,7 @@
       </c>
       <c r="L6" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -3264,7 +3290,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U6" s="10"/>
     </row>
@@ -3275,8 +3301,12 @@
       <c r="B7" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" s="11" t="n">
         <v>9</v>
       </c>
@@ -3287,23 +3317,22 @@
       </c>
       <c r="H7" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I7" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J7" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>12</v>
       </c>
       <c r="K7" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L7" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -3313,7 +3342,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3323,8 +3352,12 @@
       <c r="B8" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="11" t="n">
         <v>5</v>
       </c>
@@ -3335,11 +3368,11 @@
       </c>
       <c r="H8" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3350,7 +3383,7 @@
       </c>
       <c r="L8" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -3360,7 +3393,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U8" s="10"/>
     </row>
@@ -3371,8 +3404,12 @@
       <c r="B9" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="11" t="n">
         <v>4</v>
       </c>
@@ -3383,11 +3420,11 @@
       </c>
       <c r="H9" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I9" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3398,7 +3435,7 @@
       </c>
       <c r="L9" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -3408,7 +3445,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3418,8 +3455,8 @@
       <c r="B10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="11" t="n">
         <v>5</v>
       </c>
@@ -3467,8 +3504,12 @@
       <c r="B11" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="11" t="n">
         <v>5</v>
       </c>
@@ -3479,11 +3520,11 @@
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J11" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3494,7 +3535,7 @@
       </c>
       <c r="L11" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -3504,7 +3545,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3514,8 +3555,12 @@
       <c r="B12" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="11" t="n">
         <v>5</v>
       </c>
@@ -3526,23 +3571,22 @@
       </c>
       <c r="H12" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J12" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
       <c r="K12" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L12" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -3552,7 +3596,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12" s="10"/>
     </row>
@@ -3563,8 +3607,12 @@
       <c r="B13" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="11" t="n">
         <v>5</v>
       </c>
@@ -3575,11 +3623,11 @@
       </c>
       <c r="H13" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I13" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J13" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3590,7 +3638,7 @@
       </c>
       <c r="L13" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -3600,7 +3648,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3610,8 +3658,12 @@
       <c r="B14" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="11" t="n">
         <v>6</v>
       </c>
@@ -3622,23 +3674,22 @@
       </c>
       <c r="H14" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I14" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>7</v>
       </c>
       <c r="K14" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L14" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -3648,7 +3699,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U14" s="10"/>
     </row>
@@ -3659,8 +3710,12 @@
       <c r="B15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" s="11" t="n">
         <v>5</v>
       </c>
@@ -3671,11 +3726,11 @@
       </c>
       <c r="H15" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I15" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J15" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3686,7 +3741,7 @@
       </c>
       <c r="L15" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -3696,7 +3751,7 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3706,8 +3761,12 @@
       <c r="B16" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" s="11" t="n">
         <v>6</v>
       </c>
@@ -3718,23 +3777,22 @@
       </c>
       <c r="H16" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I16" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
       <c r="K16" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L16" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -3744,57 +3802,57 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14" t="n">
+      <c r="C17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="n">
+      <c r="E17" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I17" s="14" t="n">
+      <c r="I17" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J17" s="14" t="n">
+      <c r="J17" s="15" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K17" s="14" t="n">
+      <c r="K17" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="L17" s="14" t="n">
+      <c r="L17" s="15" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15" t="n">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3806,8 +3864,12 @@
       <c r="B18" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" s="13" t="n">
         <v>5</v>
       </c>
@@ -3818,23 +3880,20 @@
       </c>
       <c r="H18" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I18" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J18" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K18" s="13" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
@@ -3854,8 +3913,12 @@
       <c r="B19" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" s="13" t="n">
         <v>4</v>
       </c>
@@ -3866,11 +3929,11 @@
       </c>
       <c r="H19" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I19" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J19" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3882,7 +3945,7 @@
       </c>
       <c r="L19" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -3902,8 +3965,12 @@
       <c r="B20" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="13" t="n">
         <v>5</v>
       </c>
@@ -3914,23 +3981,22 @@
       </c>
       <c r="H20" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I20" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J20" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
       <c r="K20" s="13" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L20" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -3940,7 +4006,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3950,8 +4016,12 @@
       <c r="B21" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="13" t="n">
         <v>7</v>
       </c>
@@ -3962,11 +4032,11 @@
       </c>
       <c r="H21" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I21" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J21" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -3977,7 +4047,7 @@
       </c>
       <c r="L21" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -3987,56 +4057,56 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="C22" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="16" t="n">
+      <c r="C22" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="n">
+      <c r="E22" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="17" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I22" s="16" t="n">
+      <c r="I22" s="17" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J22" s="16" t="n">
+      <c r="J22" s="17" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K22" s="16" t="n">
+      <c r="K22" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="L22" s="16" t="n">
+      <c r="L22" s="17" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15" t="n">
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4048,8 +4118,8 @@
       <c r="B23" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="11" t="n">
         <v>4</v>
       </c>
@@ -4097,8 +4167,12 @@
       <c r="B24" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="11" t="n">
         <v>0</v>
       </c>
@@ -4109,11 +4183,11 @@
       </c>
       <c r="H24" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I24" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J24" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -4125,7 +4199,7 @@
       </c>
       <c r="L24" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -4145,8 +4219,12 @@
       <c r="B25" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" s="11" t="n">
         <v>5</v>
       </c>
@@ -4157,11 +4235,11 @@
       </c>
       <c r="H25" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I25" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J25" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -4172,7 +4250,7 @@
       </c>
       <c r="L25" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -4182,7 +4260,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U25" s="10"/>
     </row>
@@ -4193,8 +4271,12 @@
       <c r="B26" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" s="11" t="n">
         <v>6</v>
       </c>
@@ -4205,11 +4287,11 @@
       </c>
       <c r="H26" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I26" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J26" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -4220,7 +4302,7 @@
       </c>
       <c r="L26" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -4230,7 +4312,7 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4240,8 +4322,8 @@
       <c r="B27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="11" t="n">
         <v>0</v>
       </c>
@@ -4289,8 +4371,12 @@
       <c r="B28" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="E28" s="11" t="n">
         <v>6</v>
       </c>
@@ -4301,11 +4387,11 @@
       </c>
       <c r="H28" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I28" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J28" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
@@ -4316,7 +4402,7 @@
       </c>
       <c r="L28" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -4326,189 +4412,189 @@
       <c r="R28" s="12"/>
       <c r="S28" s="12" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
       <c r="U29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="18" t="n">
+      <c r="B30" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="17"/>
-      <c r="K31" s="22" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="18"/>
+      <c r="K31" s="23" t="s">
         <v>50</v>
       </c>
       <c r="L31" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="24" t="n">
+      <c r="B32" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="K32" s="22" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="K32" s="23" t="s">
         <v>52</v>
       </c>
       <c r="L32" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="27" t="n">
+      <c r="B33" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="K33" s="22" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="K33" s="23" t="s">
         <v>55</v>
       </c>
       <c r="L33" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="27" t="n">
+      <c r="B34" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="K34" s="22" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="K34" s="23" t="s">
         <v>58</v>
       </c>
       <c r="L34" s="13" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;60")</f>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="27" t="n">
+      <c r="B35" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
       <c r="U35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="27" t="n">
+      <c r="B36" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U37" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
       <c r="U39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="30" t="n">
+      <c r="B40" s="31" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="32" t="n">
+      <c r="B41" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="U41" s="33"/>
+      <c r="U41" s="34"/>
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="32" t="n">
+      <c r="B42" s="33" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="35" t="n">
+      <c r="B43" s="36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4562,373 +4648,373 @@
   <sheetData>
     <row r="1" customFormat="false" ht="43.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="n">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="n">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="n">
         <f aca="false">SUM(B2:E2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="n">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="n">
         <f aca="false">SUM(B3:E3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="16" t="n">
+      <c r="E4" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="n">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="n">
         <f aca="false">SUM(B4:E4)</f>
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="n">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="n">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="n">
         <f aca="false">SUM(B5:E5)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="n">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="n">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="n">
         <f aca="false">SUM(B6:E6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="n">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="n">
         <f aca="false">SUM(B7:E7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="n">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="n">
         <f aca="false">SUM(B8:E8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="n">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="n">
         <f aca="false">SUM(B9:E9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="n">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="n">
         <f aca="false">SUM(B10:E10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="n">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="n">
         <f aca="false">SUM(B11:E11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="n">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="n">
         <f aca="false">SUM(B12:E12)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="16" t="n">
+      <c r="B13" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="n">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="n">
         <f aca="false">SUM(B13:E13)</f>
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="n">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="n">
         <f aca="false">SUM(B14:E14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="n">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="n">
         <f aca="false">SUM(B15:E15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="n">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="n">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="n">
         <f aca="false">SUM(B16:E16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="n">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="n">
         <f aca="false">SUM(B17:E17)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="n">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="n">
         <f aca="false">SUM(B18:E18)</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="n">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="n">
         <f aca="false">SUM(B19:E19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="n">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="n">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="n">
         <f aca="false">SUM(B20:E20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="13"/>
@@ -4943,43 +5029,43 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="n">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="n">
         <f aca="false">SUM(B22:E22)</f>
         <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="n">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="n">
         <f aca="false">SUM(B23:E23)</f>
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="13"/>
@@ -4994,20 +5080,20 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16" t="n">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="n">
         <f aca="false">SUM(B25:E25)</f>
         <v>6</v>
       </c>

--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -354,14 +354,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF94BD5E"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94BD5E"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -665,6 +665,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,20 +677,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1059,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3204,7 +3204,7 @@
       <c r="D5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="11"/>
@@ -3231,13 +3231,13 @@
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12" t="n">
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="D6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="11"/>
@@ -3282,13 +3282,13 @@
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>91</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12" t="n">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3307,8 +3307,8 @@
       <c r="D7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="n">
-        <v>9</v>
+      <c r="E7" s="12" t="n">
+        <v>10</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="n">
@@ -3325,22 +3325,22 @@
       </c>
       <c r="J7" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="11" t="n">
         <v>23</v>
       </c>
       <c r="L7" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>90</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="n">
+        <v>91</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="D8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="11"/>
@@ -3385,13 +3385,13 @@
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12" t="n">
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3410,10 +3410,10 @@
       <c r="D9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
@@ -3437,13 +3437,13 @@
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>80</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12" t="n">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3455,9 +3455,9 @@
       <c r="B10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11" t="n">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="11"/>
@@ -3489,9 +3489,9 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12" t="n">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="D11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="11"/>
@@ -3541,9 +3541,9 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12" t="n">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>3</v>
       </c>
@@ -3556,12 +3556,12 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F12" s="11"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H12" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
@@ -3586,17 +3586,17 @@
       </c>
       <c r="L12" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12" t="n">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12" s="10"/>
     </row>
@@ -3613,7 +3613,7 @@
       <c r="D13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="11"/>
@@ -3644,9 +3644,9 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12" t="n">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="D14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F14" s="11"/>
@@ -3695,9 +3695,9 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12" t="n">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="D15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F15" s="11"/>
@@ -3747,9 +3747,9 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12" t="n">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="D16" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="11"/>
@@ -3798,61 +3798,61 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12" t="n">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
       <c r="U16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="15" t="n">
+      <c r="C17" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="n">
+      <c r="E17" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="15" t="n">
+      <c r="H17" s="16" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="16" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J17" s="15" t="n">
+      <c r="J17" s="16" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K17" s="15" t="n">
+      <c r="K17" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="L17" s="15" t="n">
+      <c r="L17" s="16" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16" t="n">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3864,44 +3864,44 @@
       <c r="B18" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="n">
+      <c r="E18" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="n">
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>51</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12" t="n">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3913,47 +3913,47 @@
       <c r="B19" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="n">
+      <c r="C19" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="n">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="13" t="n">
+      <c r="H19" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="J19" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>7</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>50</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12" t="n">
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3965,46 +3965,46 @@
       <c r="B20" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="n">
+      <c r="E20" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="13" t="n">
+      <c r="H20" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>24</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="J20" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>81</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12" t="n">
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -4016,97 +4016,97 @@
       <c r="B21" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C21" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="13" t="n">
+      <c r="C21" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="n">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="13" t="n">
+      <c r="H21" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="14" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="14" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>10</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="L21" s="13" t="n">
+      <c r="L21" s="14" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>92</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12" t="n">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="C22" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="17" t="n">
+      <c r="C22" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="n">
+      <c r="E22" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="17" t="n">
+      <c r="H22" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I22" s="17" t="n">
+      <c r="I22" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J22" s="17" t="n">
+      <c r="J22" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K22" s="17" t="n">
+      <c r="K22" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="L22" s="17" t="n">
+      <c r="L22" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16" t="n">
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4118,9 +4118,9 @@
       <c r="B23" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11" t="n">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="11"/>
@@ -4152,9 +4152,9 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12" t="n">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="D24" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="11"/>
@@ -4205,9 +4205,9 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12" t="n">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="D25" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F25" s="11"/>
@@ -4256,9 +4256,9 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12" t="n">
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="D26" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F26" s="11"/>
@@ -4308,9 +4308,9 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12" t="n">
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>3</v>
       </c>
@@ -4322,9 +4322,9 @@
       <c r="B27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11" t="n">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="11"/>
@@ -4356,9 +4356,9 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12" t="n">
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="D28" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F28" s="11"/>
@@ -4408,9 +4408,9 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12" t="n">
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="K31" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="13" t="n">
+      <c r="L31" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
         <v>10</v>
       </c>
@@ -4479,9 +4479,9 @@
       <c r="K32" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="13" t="n">
+      <c r="L32" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4500,9 +4500,9 @@
       <c r="K33" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="13" t="n">
+      <c r="L33" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U33" s="10"/>
     </row>
@@ -4522,7 +4522,7 @@
       <c r="K34" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="13" t="n">
+      <c r="L34" s="14" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;60")</f>
         <v>6</v>
       </c>
@@ -4634,7 +4634,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4647,7 +4647,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13"/>
+      <c r="A1" s="14"/>
       <c r="B1" s="37" t="s">
         <v>68</v>
       </c>
@@ -4671,311 +4671,311 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="n">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="n">
-        <f aca="false">SUM(B2:E2)</f>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="n">
+        <f aca="false">SUM(B2:G2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="B3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="n">
-        <f aca="false">SUM(B3:E3)</f>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="n">
+        <f aca="false">SUM(B3:G3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="n">
+      <c r="E4" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="n">
-        <f aca="false">SUM(B4:E4)</f>
-        <v>9</v>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="n">
+        <f aca="false">SUM(B4:G4)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="n">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="n">
-        <f aca="false">SUM(B5:E5)</f>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="n">
+        <f aca="false">SUM(B5:G5)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="n">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="n">
-        <f aca="false">SUM(B6:E6)</f>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="n">
+        <f aca="false">SUM(B6:G6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="n">
-        <f aca="false">SUM(B7:E7)</f>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="n">
+        <f aca="false">SUM(B7:G7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="n">
-        <f aca="false">SUM(B8:E8)</f>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="n">
+        <f aca="false">SUM(B8:G8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="n">
-        <f aca="false">SUM(B9:E9)</f>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="n">
+        <f aca="false">SUM(B9:G9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="n">
-        <f aca="false">SUM(B10:E10)</f>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="n">
+        <f aca="false">SUM(B10:G10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="n">
-        <f aca="false">SUM(B11:E11)</f>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="n">
+        <f aca="false">SUM(B11:G11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="n">
-        <f aca="false">SUM(B12:E12)</f>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="n">
+        <f aca="false">SUM(B12:G12)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="n">
-        <f aca="false">SUM(B13:E13)</f>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="n">
+        <f aca="false">SUM(B13:G13)</f>
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="n">
-        <f aca="false">SUM(B14:E14)</f>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="n">
+        <f aca="false">SUM(B14:G14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="n">
-        <f aca="false">SUM(B15:E15)</f>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="n">
+        <f aca="false">SUM(B15:G15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="n">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="n">
-        <f aca="false">SUM(B16:E16)</f>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="n">
+        <f aca="false">SUM(B16:G16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="n">
-        <f aca="false">SUM(B17:E17)</f>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="n">
+        <f aca="false">SUM(B17:G17)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="n">
-        <f aca="false">SUM(B18:E18)</f>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="n">
+        <f aca="false">SUM(B18:G18)</f>
         <v>7</v>
       </c>
     </row>
@@ -4983,33 +4983,33 @@
       <c r="A19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="n">
-        <f aca="false">SUM(B19:E19)</f>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="n">
+        <f aca="false">SUM(B19:G19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="n">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="n">
-        <f aca="false">SUM(B20:E20)</f>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="n">
+        <f aca="false">SUM(B20:G20)</f>
         <v>4</v>
       </c>
     </row>
@@ -5017,50 +5017,50 @@
       <c r="A21" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="n">
-        <f aca="false">SUM(B21:E21)</f>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12" t="n">
+        <f aca="false">SUM(B21:G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="n">
-        <f aca="false">SUM(B22:E22)</f>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="n">
+        <f aca="false">SUM(B22:G22)</f>
         <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="n">
-        <f aca="false">SUM(B23:E23)</f>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="n">
+        <f aca="false">SUM(B23:G23)</f>
         <v>6</v>
       </c>
     </row>
@@ -5068,33 +5068,33 @@
       <c r="A24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="n">
-        <f aca="false">SUM(B24:E24)</f>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12" t="n">
+        <f aca="false">SUM(B24:G24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="n">
-        <f aca="false">SUM(B25:E25)</f>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="n">
+        <f aca="false">SUM(B25:G25)</f>
         <v>6</v>
       </c>
     </row>

--- a/БАРС/Баллы_НИ.xlsx
+++ b/БАРС/Баллы_НИ.xlsx
@@ -354,12 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94BD5E"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -368,6 +362,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
         <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94BD5E"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -616,7 +616,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,7 +665,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,8 +681,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -753,7 +765,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,6 +779,14 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -816,15 +836,7 @@
     <cellStyle name="Обычный 9" xfId="45"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF94BD5E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -844,14 +856,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1059,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,7 +1080,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>45305</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="25.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3198,46 +3202,46 @@
       <c r="B5" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11" t="n">
+      <c r="C5" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="n">
+      <c r="E5" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="n">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3249,46 +3253,46 @@
       <c r="B6" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11" t="n">
+      <c r="C6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="n">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>9</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>91</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13" t="n">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3301,46 +3305,46 @@
       <c r="B7" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="n">
+      <c r="C7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="n">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>13</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>91</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13" t="n">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3352,46 +3356,46 @@
       <c r="B8" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="n">
+      <c r="C8" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="n">
+      <c r="E8" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13" t="n">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3404,46 +3408,46 @@
       <c r="B9" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="11" t="n">
+      <c r="F9" s="15"/>
+      <c r="G9" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>24</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>7</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>80</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="n">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3455,43 +3459,55 @@
       <c r="B10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="n">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>5</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>5</v>
       </c>
-      <c r="K10" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="n">
+      <c r="K10" s="12" t="n">
+        <f aca="false">SUM(M10:R10)</f>
+        <v>25</v>
+      </c>
+      <c r="L10" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>10</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -3504,46 +3520,46 @@
       <c r="B11" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="n">
+      <c r="E11" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>75</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13" t="n">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>3</v>
       </c>
@@ -3555,46 +3571,46 @@
       <c r="B12" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="n">
+      <c r="E12" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="H12" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>76</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13" t="n">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3607,46 +3623,46 @@
       <c r="B13" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="n">
+      <c r="E13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="H13" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>24</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>82</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13" t="n">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3658,46 +3674,46 @@
       <c r="B14" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11" t="n">
+      <c r="C14" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11" t="n">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="H14" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>7</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>84</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13" t="n">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3710,46 +3726,46 @@
       <c r="B15" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="n">
+      <c r="E15" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>24</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>83</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13" t="n">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -3761,98 +3777,98 @@
       <c r="B16" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="n">
+      <c r="C16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="n">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="L16" s="11" t="n">
+      <c r="L16" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>86</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13" t="n">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
       <c r="U16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="16" t="n">
+      <c r="C17" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="n">
+      <c r="E17" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="11" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J17" s="16" t="n">
+      <c r="J17" s="11" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K17" s="16" t="n">
+      <c r="K17" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="L17" s="16" t="n">
+      <c r="L17" s="11" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17" t="n">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -3864,46 +3880,61 @@
       <c r="B18" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="n">
+      <c r="E18" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I18" s="14" t="n">
+      <c r="I18" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="15" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14" t="n">
+      <c r="K18" s="15" t="n">
+        <f aca="false">SUM(M18:R18)</f>
+        <v>19</v>
+      </c>
+      <c r="L18" s="15" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>51</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="M18" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3913,49 +3944,61 @@
       <c r="B19" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="n">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I19" s="14" t="n">
+      <c r="I19" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="15" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>7</v>
       </c>
-      <c r="K19" s="14" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="14" t="n">
+      <c r="K19" s="15" t="n">
+        <f aca="false">SUM(M19:R19)</f>
+        <v>22</v>
+      </c>
+      <c r="L19" s="15" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>50</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13" t="n">
+        <v>72</v>
+      </c>
+      <c r="M19" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3965,46 +4008,46 @@
       <c r="B20" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D20" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="n">
+      <c r="E20" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>24</v>
       </c>
-      <c r="I20" s="14" t="n">
+      <c r="I20" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J20" s="14" t="n">
+      <c r="J20" s="15" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K20" s="14" t="n">
+      <c r="K20" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="L20" s="14" t="n">
+      <c r="L20" s="15" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>81</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13" t="n">
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>4</v>
       </c>
@@ -4016,97 +4059,97 @@
       <c r="B21" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C21" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="14" t="n">
+      <c r="C21" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="n">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I21" s="14" t="n">
+      <c r="I21" s="15" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="15" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>10</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K21" s="15" t="n">
         <v>27</v>
       </c>
-      <c r="L21" s="14" t="n">
+      <c r="L21" s="15" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>92</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13" t="n">
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C22" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="n">
+      <c r="C22" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="n">
+      <c r="E22" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="13" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J22" s="12" t="n">
+      <c r="J22" s="13" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K22" s="12" t="n">
+      <c r="K22" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="13" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>89</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17" t="n">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4118,43 +4161,43 @@
       <c r="B23" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12" t="n">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="n">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="11" t="n">
+      <c r="H23" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>6</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L23" s="11" t="n">
+      <c r="L23" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>16</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13" t="n">
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4167,49 +4210,61 @@
       <c r="B24" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="n">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H24" s="11" t="n">
+      <c r="H24" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>24</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="I24" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J24" s="11" t="n">
+      <c r="J24" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>3</v>
       </c>
-      <c r="K24" s="11" t="n">
-        <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="11" t="n">
+      <c r="K24" s="15" t="n">
+        <f aca="false">SUM(M24:R24)</f>
+        <v>13</v>
+      </c>
+      <c r="L24" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
-        <v>52</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13" t="n">
+        <v>65</v>
+      </c>
+      <c r="M24" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4219,46 +4274,46 @@
       <c r="B25" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C25" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D25" s="11" t="n">
+      <c r="C25" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="n">
+      <c r="E25" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H25" s="11" t="n">
+      <c r="H25" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J25" s="11" t="n">
+      <c r="J25" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>8</v>
       </c>
-      <c r="K25" s="11" t="n">
+      <c r="K25" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="L25" s="11" t="n">
+      <c r="L25" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>86</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13" t="n">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
@@ -4271,46 +4326,46 @@
       <c r="B26" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D26" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="n">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H26" s="11" t="n">
+      <c r="H26" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>18</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="I26" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J26" s="11" t="n">
+      <c r="J26" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>9</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="L26" s="11" t="n">
+      <c r="L26" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>75</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13" t="n">
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>3</v>
       </c>
@@ -4322,43 +4377,43 @@
       <c r="B27" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="12" t="n">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="n">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>2</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>0</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>0</v>
       </c>
-      <c r="J27" s="11" t="n">
+      <c r="J27" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>0</v>
       </c>
-      <c r="K27" s="11" t="n">
+      <c r="K27" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Промежуточная аттестация]]</f>
         <v>0</v>
       </c>
-      <c r="L27" s="11" t="n">
+      <c r="L27" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>2</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13" t="n">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>2</v>
       </c>
@@ -4371,230 +4426,230 @@
       <c r="B28" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="C28" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D28" s="11" t="n">
+      <c r="C28" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="n">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="n">
         <f aca="false">MIN(Таблица531[[#This Row],[Лекции]],10)</f>
         <v>10</v>
       </c>
-      <c r="H28" s="11" t="n">
+      <c r="H28" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Лабораторные]]*6</f>
         <v>30</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="I28" s="12" t="n">
         <f aca="false">Таблица531[[#This Row],[Самостоятельная работа]]*15</f>
         <v>15</v>
       </c>
-      <c r="J28" s="11" t="n">
+      <c r="J28" s="12" t="n">
         <f aca="false">MAX(0,Таблица531[[#This Row],[Лекции]]-10)+Таблица531[[#This Row],[Другие виды уч.  Деятельности]]</f>
         <v>9</v>
       </c>
-      <c r="K28" s="11" t="n">
+      <c r="K28" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="L28" s="11" t="n">
+      <c r="L28" s="12" t="n">
         <f aca="false">SUM(Таблица531[[#This Row],[Лекции (б)]:[Промежуточная аттестация (б)]])</f>
         <v>92</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13" t="n">
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14" t="n">
         <f aca="false">IF(Таблица531[[#This Row],[Итого]]&gt;=86,5,IF(Таблица531[[#This Row],[Итого]]&gt;=76,4,IF(Таблица531[[#This Row],[Итого]]&gt;=60,3,2)))</f>
         <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
       <c r="U29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="19" t="n">
+      <c r="B30" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="20"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="18"/>
-      <c r="K31" s="23" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="21"/>
+      <c r="K31" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="14" t="n">
+      <c r="L31" s="15" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&gt;=86")</f>
         <v>10</v>
       </c>
       <c r="U31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="K32" s="23" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="K32" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="14" t="n">
+      <c r="L32" s="15" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;86",Таблица531[Итого],"&gt;=76")</f>
         <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="28" t="n">
+      <c r="B33" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="K33" s="23" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="K33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L33" s="14" t="n">
+      <c r="L33" s="15" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;76",Таблица531[Итого],"&gt;=60")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="28" t="n">
+      <c r="B34" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="K34" s="23" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="K34" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="14" t="n">
+      <c r="L34" s="15" t="n">
         <f aca="false">COUNTIFS(Таблица531[Итого],"&lt;60")</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="28" t="n">
+      <c r="B35" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="U35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="28" t="n">
+      <c r="B36" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="U37" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="22" t="s">
         <v>63</v>
       </c>
       <c r="U39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="31" t="n">
+      <c r="B40" s="34" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="33" t="n">
+      <c r="B41" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="U41" s="34"/>
+      <c r="U41" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="33" t="n">
+      <c r="B42" s="36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="36" t="n">
+      <c r="B43" s="39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4634,7 +4689,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4647,453 +4702,453 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14"/>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="n">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="n">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="n">
         <f aca="false">SUM(B2:G2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="n">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="n">
         <f aca="false">SUM(B3:G3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12" t="n">
+      <c r="E4" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="n">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42" t="n">
         <f aca="false">SUM(B4:G4)</f>
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="n">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="n">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="n">
         <f aca="false">SUM(B5:G5)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="n">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="n">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="n">
         <f aca="false">SUM(B6:G6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="n">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42" t="n">
         <f aca="false">SUM(B7:G7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="n">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="n">
         <f aca="false">SUM(B8:G8)</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="n">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="n">
         <f aca="false">SUM(B9:G9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="n">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="n">
         <f aca="false">SUM(B10:G10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="n">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42" t="n">
         <f aca="false">SUM(B11:G11)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="n">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42" t="n">
         <f aca="false">SUM(B12:G12)</f>
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="n">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42" t="n">
         <f aca="false">SUM(B13:G13)</f>
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="n">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42" t="n">
         <f aca="false">SUM(B14:G14)</f>
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="n">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42" t="n">
         <f aca="false">SUM(B15:G15)</f>
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="n">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="n">
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42" t="n">
         <f aca="false">SUM(B16:G16)</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="n">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42" t="n">
         <f aca="false">SUM(B17:G17)</f>
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42" t="n">
         <f aca="false">SUM(B18:G18)</f>
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12" t="n">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42" t="n">
         <f aca="false">SUM(B19:G19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="n">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="n">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42" t="n">
         <f aca="false">SUM(B20:G20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12" t="n">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="42" t="n">
         <f aca="false">SUM(B21:G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="n">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42" t="n">
         <f aca="false">SUM(B22:G22)</f>
         <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12" t="n">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42" t="n">
         <f aca="false">SUM(B23:G23)</f>
         <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="12" t="n">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="42" t="n">
         <f aca="false">SUM(B24:G24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12" t="n">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42" t="n">
         <f aca="false">SUM(B25:G25)</f>
         <v>6</v>
       </c>
